--- a/1_calculation_scripts/1_4_methane/results/mie_results_vle_fluid.xlsx
+++ b/1_calculation_scripts/1_4_methane/results/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.7936646711679768</v>
       </c>
       <c r="D2">
-        <v>196.7976156816229</v>
+        <v>196.7976156816234</v>
       </c>
       <c r="E2">
-        <v>5755361.52590173</v>
+        <v>5755361.525901811</v>
       </c>
       <c r="F2">
-        <v>10409.2269040051</v>
+        <v>10409.22690400519</v>
       </c>
       <c r="G2">
         <v>3.783505687459526</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>64.92811879122942</v>
       </c>
@@ -585,12 +597,18 @@
         <v>0.2052774089762633</v>
       </c>
       <c r="M2">
+        <v>0.2052762159908852</v>
+      </c>
+      <c r="N2">
         <v>2223.443364167833</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>1.192985378111136E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>66.26011403278737</v>
+        <v>66.26011403278738</v>
       </c>
       <c r="B3">
         <v>74.29394565529169</v>
@@ -608,36 +626,42 @@
         <v>10827.48755366557</v>
       </c>
       <c r="G3">
-        <v>40.72617121038467</v>
+        <v>40.72617121038478</v>
       </c>
       <c r="H3">
-        <v>144.6917405881033</v>
+        <v>144.6917405881034</v>
       </c>
       <c r="I3">
-        <v>1.171142409365823E-09</v>
+        <v>1.171142409365822E-09</v>
       </c>
       <c r="J3">
         <v>9.443411018214728E-10</v>
       </c>
       <c r="K3">
-        <v>0.0006861037200146342</v>
+        <v>0.0006861037200146344</v>
       </c>
       <c r="L3">
-        <v>0.2036461558887036</v>
+        <v>0.2036461558887037</v>
       </c>
       <c r="M3">
-        <v>2120.465378012686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2036449402146835</v>
+      </c>
+      <c r="N3">
+        <v>2120.465378012685</v>
+      </c>
+      <c r="O3">
+        <v>1.21567402017209E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>67.59210927434532</v>
+        <v>67.59210927434533</v>
       </c>
       <c r="B4">
-        <v>111.2416921818507</v>
+        <v>111.2416921818508</v>
       </c>
       <c r="C4">
-        <v>0.1979681358703869</v>
+        <v>0.197968135870387</v>
       </c>
       <c r="D4">
         <v>31731.63001327091</v>
@@ -649,10 +673,10 @@
         <v>10627.78625947133</v>
       </c>
       <c r="G4">
-        <v>42.65212368767539</v>
+        <v>42.65212368767534</v>
       </c>
       <c r="H4">
-        <v>138.3881276091337</v>
+        <v>138.3881276091335</v>
       </c>
       <c r="I4">
         <v>1.194457563270791E-09</v>
@@ -667,59 +691,71 @@
         <v>0.2022443926049903</v>
       </c>
       <c r="M4">
+        <v>0.2022431528094237</v>
+      </c>
+      <c r="N4">
         <v>2043.174162533052</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>1.239795566664408E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>68.92410451590327</v>
+        <v>68.92410451590328</v>
       </c>
       <c r="B5">
-        <v>162.9518488457935</v>
+        <v>162.9518488457952</v>
       </c>
       <c r="C5">
-        <v>0.2844031001865371</v>
+        <v>0.28440310018654</v>
       </c>
       <c r="D5">
-        <v>31417.08876351372</v>
+        <v>31417.08876351371</v>
       </c>
       <c r="E5">
-        <v>11009.7109701931</v>
+        <v>11009.71097019311</v>
       </c>
       <c r="F5">
         <v>10436.75528293845</v>
       </c>
       <c r="G5">
-        <v>43.37577265898854</v>
+        <v>43.37577265898864</v>
       </c>
       <c r="H5">
         <v>131.688915733602</v>
       </c>
       <c r="I5">
-        <v>1.217677124013101E-09</v>
+        <v>1.217677124013102E-09</v>
       </c>
       <c r="J5">
-        <v>1.003223552018558E-09</v>
+        <v>1.003223552018559E-09</v>
       </c>
       <c r="K5">
-        <v>0.0006872779891162906</v>
+        <v>0.0006872779891162902</v>
       </c>
       <c r="L5">
-        <v>0.2010571921267378</v>
+        <v>0.2010571921267379</v>
       </c>
       <c r="M5">
-        <v>1983.05190501319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2010559266790011</v>
+      </c>
+      <c r="N5">
+        <v>1983.051905013187</v>
+      </c>
+      <c r="O5">
+        <v>1.265447736780786E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>70.25609975746121</v>
+        <v>70.25609975746124</v>
       </c>
       <c r="B6">
-        <v>233.911656270509</v>
+        <v>233.911656270514</v>
       </c>
       <c r="C6">
-        <v>0.4005373964646228</v>
+        <v>0.4005373964646312</v>
       </c>
       <c r="D6">
         <v>31118.26330608556</v>
@@ -731,42 +767,48 @@
         <v>10254.78482899092</v>
       </c>
       <c r="G6">
-        <v>43.17704747535672</v>
+        <v>43.17704747535667</v>
       </c>
       <c r="H6">
-        <v>124.7884375604929</v>
+        <v>124.7884375604927</v>
       </c>
       <c r="I6">
-        <v>1.240869489674215E-09</v>
+        <v>1.240869489674217E-09</v>
       </c>
       <c r="J6">
-        <v>1.034697363393915E-09</v>
+        <v>1.034697363393916E-09</v>
       </c>
       <c r="K6">
         <v>0.0006840077761911168</v>
       </c>
       <c r="L6">
-        <v>0.2000691423999579</v>
+        <v>0.2000691423999578</v>
       </c>
       <c r="M6">
-        <v>1934.938347368136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2000678496654955</v>
+      </c>
+      <c r="N6">
+        <v>1934.938347368135</v>
+      </c>
+      <c r="O6">
+        <v>1.292734462302858E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>71.58809499901916</v>
+        <v>71.58809499901919</v>
       </c>
       <c r="B7">
-        <v>329.5430165050232</v>
+        <v>329.5430165050353</v>
       </c>
       <c r="C7">
-        <v>0.5538390450071662</v>
+        <v>0.5538390450071864</v>
       </c>
       <c r="D7">
         <v>30833.89531389943</v>
       </c>
       <c r="E7">
-        <v>10677.03582525711</v>
+        <v>10677.0358252571</v>
       </c>
       <c r="F7">
         <v>10082.03065138598</v>
@@ -775,10 +817,10 @@
         <v>42.28937862903764</v>
       </c>
       <c r="H7">
-        <v>117.8443411977178</v>
+        <v>117.8443411977176</v>
       </c>
       <c r="I7">
-        <v>1.264103762401058E-09</v>
+        <v>1.264103762401057E-09</v>
       </c>
       <c r="J7">
         <v>1.06769068712388E-09</v>
@@ -790,33 +832,39 @@
         <v>0.1992640067237297</v>
       </c>
       <c r="M7">
+        <v>0.1992626849576451</v>
+      </c>
+      <c r="N7">
         <v>1895.503521128327</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>1.321766084560652E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>72.92009024057711</v>
+        <v>72.92009024057714</v>
       </c>
       <c r="B8">
-        <v>456.3025131243479</v>
+        <v>456.3025131243511</v>
       </c>
       <c r="C8">
-        <v>0.7529468939852947</v>
+        <v>0.7529468939852997</v>
       </c>
       <c r="D8">
         <v>30562.83540942002</v>
       </c>
       <c r="E8">
-        <v>10524.46771385024</v>
+        <v>10524.46771385023</v>
       </c>
       <c r="F8">
-        <v>9918.460470425875</v>
+        <v>9918.460470425864</v>
       </c>
       <c r="G8">
-        <v>40.90460585112669</v>
+        <v>40.90460585112667</v>
       </c>
       <c r="H8">
-        <v>110.9813219214766</v>
+        <v>110.9813219214764</v>
       </c>
       <c r="I8">
         <v>1.287449355497913E-09</v>
@@ -825,1749 +873,2007 @@
         <v>1.102335773942943E-09</v>
       </c>
       <c r="K8">
-        <v>0.0006693384632753363</v>
+        <v>0.000669338463275336</v>
       </c>
       <c r="L8">
-        <v>0.1986245282112838</v>
+        <v>0.1986245282112839</v>
       </c>
       <c r="M8">
-        <v>1862.489021781869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1986231755517717</v>
+      </c>
+      <c r="N8">
+        <v>1862.489021781868</v>
+      </c>
+      <c r="O8">
+        <v>1.352659512170347E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>74.25208548213504</v>
+        <v>74.25208548213509</v>
       </c>
       <c r="B9">
-        <v>621.7788527110754</v>
+        <v>621.7788527110831</v>
       </c>
       <c r="C9">
-        <v>1.007728115305494</v>
+        <v>1.007728115305506</v>
       </c>
       <c r="D9">
-        <v>30304.03231235902</v>
+        <v>30304.03231235901</v>
       </c>
       <c r="E9">
-        <v>10380.88512577048</v>
+        <v>10380.88512577047</v>
       </c>
       <c r="F9">
-        <v>9763.895119531837</v>
+        <v>9763.895119531826</v>
       </c>
       <c r="G9">
-        <v>39.17812237092871</v>
+        <v>39.17812237092873</v>
       </c>
       <c r="H9">
-        <v>104.2952344428933</v>
+        <v>104.2952344428931</v>
       </c>
       <c r="I9">
-        <v>1.310975690439835E-09</v>
+        <v>1.310975690439836E-09</v>
       </c>
       <c r="J9">
-        <v>1.138772280976547E-09</v>
+        <v>1.138772280976548E-09</v>
       </c>
       <c r="K9">
-        <v>0.0006578729836988714</v>
+        <v>0.0006578729836988708</v>
       </c>
       <c r="L9">
-        <v>0.1981324074015532</v>
+        <v>0.1981324074015531</v>
       </c>
       <c r="M9">
-        <v>1834.300243050074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1981310218632218</v>
+      </c>
+      <c r="N9">
+        <v>1834.300243050072</v>
+      </c>
+      <c r="O9">
+        <v>1.385538331256812E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>75.58408072369299</v>
+        <v>75.58408072369305</v>
       </c>
       <c r="B10">
-        <v>834.7866953755286</v>
+        <v>834.7866953755439</v>
       </c>
       <c r="C10">
-        <v>1.32932553369496</v>
+        <v>1.329325533694984</v>
       </c>
       <c r="D10">
-        <v>30056.52319355134</v>
+        <v>30056.52319355133</v>
       </c>
       <c r="E10">
-        <v>10245.99400522972</v>
+        <v>10245.9940052297</v>
       </c>
       <c r="F10">
-        <v>9618.044151189026</v>
+        <v>9618.044151189013</v>
       </c>
       <c r="G10">
-        <v>37.23393720602478</v>
+        <v>37.23393720602466</v>
       </c>
       <c r="H10">
-        <v>97.85725000906345</v>
+        <v>97.85725000906322</v>
       </c>
       <c r="I10">
-        <v>1.334751980328749E-09</v>
+        <v>1.33475198032875E-09</v>
       </c>
       <c r="J10">
-        <v>1.177147456515654E-09</v>
+        <v>1.177147456515656E-09</v>
       </c>
       <c r="K10">
-        <v>0.0006436841543871194</v>
+        <v>0.0006436841543871179</v>
       </c>
       <c r="L10">
-        <v>0.1977684573370023</v>
+        <v>0.1977684573370022</v>
       </c>
       <c r="M10">
-        <v>1809.773398998373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.1977670368041429</v>
+      </c>
+      <c r="N10">
+        <v>1809.773398998372</v>
+      </c>
+      <c r="O10">
+        <v>1.420532859276923E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>76.91607596525094</v>
+        <v>76.916075965251</v>
       </c>
       <c r="B11">
-        <v>1105.455978535368</v>
+        <v>1105.455978535377</v>
       </c>
       <c r="C11">
-        <v>1.730195012985668</v>
+        <v>1.73019501298568</v>
       </c>
       <c r="D11">
-        <v>29819.42508453644</v>
+        <v>29819.42508453643</v>
       </c>
       <c r="E11">
         <v>10119.41880688051</v>
       </c>
       <c r="F11">
-        <v>9480.536005206668</v>
+        <v>9480.536005206663</v>
       </c>
       <c r="G11">
-        <v>35.16944566884239</v>
+        <v>35.16944566884229</v>
       </c>
       <c r="H11">
-        <v>91.71783292706593</v>
+        <v>91.71783292706561</v>
       </c>
       <c r="I11">
-        <v>1.358847094215584E-09</v>
+        <v>1.358847094215585E-09</v>
       </c>
       <c r="J11">
-        <v>1.21761627091134E-09</v>
+        <v>1.217616270911343E-09</v>
       </c>
       <c r="K11">
-        <v>0.0006268662929279827</v>
+        <v>0.0006268662929279819</v>
       </c>
       <c r="L11">
-        <v>0.197512916734403</v>
+        <v>0.1975129167344029</v>
       </c>
       <c r="M11">
-        <v>1788.035777862932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.1975114589542702</v>
+      </c>
+      <c r="N11">
+        <v>1788.035777862931</v>
+      </c>
+      <c r="O11">
+        <v>1.457780132700173E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>78.24807120680889</v>
+        <v>78.24807120680896</v>
       </c>
       <c r="B12">
-        <v>1445.315953085064</v>
+        <v>1445.315953085094</v>
       </c>
       <c r="C12">
-        <v>2.22413331031219</v>
+        <v>2.224133310312234</v>
       </c>
       <c r="D12">
-        <v>29591.92721314056</v>
+        <v>29591.92721314054</v>
       </c>
       <c r="E12">
         <v>10000.72756941149</v>
       </c>
       <c r="F12">
-        <v>9350.943082004702</v>
+        <v>9350.943082004707</v>
       </c>
       <c r="G12">
-        <v>33.05978375339573</v>
+        <v>33.05978375339559</v>
       </c>
       <c r="H12">
-        <v>85.91039841153476</v>
+        <v>85.91039841153437</v>
       </c>
       <c r="I12">
-        <v>1.38332949584191E-09</v>
+        <v>1.383329495841913E-09</v>
       </c>
       <c r="J12">
-        <v>1.260341480977657E-09</v>
+        <v>1.260341480977662E-09</v>
       </c>
       <c r="K12">
-        <v>0.0006075826143692203</v>
+        <v>0.0006075826143692183</v>
       </c>
       <c r="L12">
-        <v>0.1973458828054508</v>
+        <v>0.1973458828054507</v>
       </c>
       <c r="M12">
-        <v>1768.41855750642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.1973443853816323</v>
+      </c>
+      <c r="N12">
+        <v>1768.418557506418</v>
+      </c>
+      <c r="O12">
+        <v>1.497423818350371E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>79.58006644836684</v>
+        <v>79.58006644836689</v>
       </c>
       <c r="B13">
-        <v>1867.373252273955</v>
+        <v>1867.373252273995</v>
       </c>
       <c r="C13">
-        <v>2.826296940989731</v>
+        <v>2.82629694098979</v>
       </c>
       <c r="D13">
-        <v>29373.28415334551</v>
+        <v>29373.2841533455</v>
       </c>
       <c r="E13">
-        <v>9889.452378696122</v>
+        <v>9889.452378696124</v>
       </c>
       <c r="F13">
         <v>9228.802201924698</v>
       </c>
       <c r="G13">
-        <v>30.96170585718249</v>
+        <v>30.96170585718245</v>
       </c>
       <c r="H13">
-        <v>80.45457910307289</v>
+        <v>80.45457910307265</v>
       </c>
       <c r="I13">
-        <v>1.408267249797762E-09</v>
+        <v>1.408267249797764E-09</v>
       </c>
       <c r="J13">
-        <v>1.305493614470496E-09</v>
+        <v>1.305493614470498E-09</v>
       </c>
       <c r="K13">
-        <v>0.000586071890805388</v>
+        <v>0.0005860718908053869</v>
       </c>
       <c r="L13">
         <v>0.1972478133506779</v>
       </c>
       <c r="M13">
-        <v>1750.400615072876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.1972462737366398</v>
+      </c>
+      <c r="N13">
+        <v>1750.400615072874</v>
+      </c>
+      <c r="O13">
+        <v>1.539614038033492E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>80.91206168992478</v>
+        <v>80.91206168992484</v>
       </c>
       <c r="B14">
-        <v>2386.183406190908</v>
+        <v>2386.183406190937</v>
       </c>
       <c r="C14">
-        <v>3.553212689407922</v>
+        <v>3.553212689407962</v>
       </c>
       <c r="D14">
-        <v>29162.80969288019</v>
+        <v>29162.80969288018</v>
       </c>
       <c r="E14">
-        <v>9785.105765106649</v>
+        <v>9785.10576510664</v>
       </c>
       <c r="F14">
-        <v>9113.630995404737</v>
+        <v>9113.630995404732</v>
       </c>
       <c r="G14">
-        <v>28.91697036535393</v>
+        <v>28.91697036535385</v>
       </c>
       <c r="H14">
-        <v>75.35907415422659</v>
+        <v>75.35907415422642</v>
       </c>
       <c r="I14">
         <v>1.433728087971531E-09</v>
       </c>
       <c r="J14">
-        <v>1.353250860648815E-09</v>
+        <v>1.353250860648817E-09</v>
       </c>
       <c r="K14">
-        <v>0.0005626497315131676</v>
+        <v>0.0005626497315131669</v>
       </c>
       <c r="L14">
         <v>0.1972000437113234</v>
       </c>
       <c r="M14">
+        <v>0.1971984592042272</v>
+      </c>
+      <c r="N14">
         <v>1733.571280391415</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>1.58450709626471E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>82.24405693148273</v>
+        <v>82.2440569314828</v>
       </c>
       <c r="B15">
-        <v>3017.915303982967</v>
+        <v>3017.915303982947</v>
       </c>
       <c r="C15">
-        <v>4.422780467436361</v>
+        <v>4.422780467436326</v>
       </c>
       <c r="D15">
-        <v>28959.87133480455</v>
+        <v>28959.87133480453</v>
       </c>
       <c r="E15">
-        <v>9687.193591797193</v>
+        <v>9687.19359179719</v>
       </c>
       <c r="F15">
-        <v>9004.940781108922</v>
+        <v>9004.940781108919</v>
       </c>
       <c r="G15">
-        <v>26.95524758062473</v>
+        <v>26.95524758062462</v>
       </c>
       <c r="H15">
-        <v>70.62408604774485</v>
+        <v>70.62408604774463</v>
       </c>
       <c r="I15">
-        <v>1.459779529375392E-09</v>
+        <v>1.459779529375394E-09</v>
       </c>
       <c r="J15">
-        <v>1.403798852716038E-09</v>
+        <v>1.403798852716042E-09</v>
       </c>
       <c r="K15">
-        <v>0.0005377024508037548</v>
+        <v>0.0005377024508037534</v>
       </c>
       <c r="L15">
         <v>0.1971852671824728</v>
       </c>
       <c r="M15">
-        <v>1717.604989517038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.1971836349173712</v>
+      </c>
+      <c r="N15">
+        <v>1717.604989517037</v>
+      </c>
+      <c r="O15">
+        <v>1.632265101668521E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>83.57605217304067</v>
+        <v>83.57605217304076</v>
       </c>
       <c r="B16">
-        <v>3780.408195504186</v>
+        <v>3780.408195504231</v>
       </c>
       <c r="C16">
-        <v>5.454269270535671</v>
+        <v>5.45426927053573</v>
       </c>
       <c r="D16">
-        <v>28763.88536025675</v>
+        <v>28763.88536025673</v>
       </c>
       <c r="E16">
-        <v>9595.224969367877</v>
+        <v>9595.224969367866</v>
       </c>
       <c r="F16">
-        <v>8902.246467760022</v>
+        <v>8902.246467760007</v>
       </c>
       <c r="G16">
-        <v>25.0965828629852</v>
+        <v>25.09658286298493</v>
       </c>
       <c r="H16">
-        <v>66.2433698519142</v>
+        <v>66.24336985191371</v>
       </c>
       <c r="I16">
-        <v>1.486489046884088E-09</v>
+        <v>1.486489046884093E-09</v>
       </c>
       <c r="J16">
-        <v>1.457330328189992E-09</v>
+        <v>1.457330328189998E-09</v>
       </c>
       <c r="K16">
-        <v>0.0005116724947738442</v>
+        <v>0.0005116724947738409</v>
       </c>
       <c r="L16">
-        <v>0.1971879357530897</v>
+        <v>0.1971879357530896</v>
       </c>
       <c r="M16">
-        <v>1702.243558710952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1971862526976156</v>
+      </c>
+      <c r="N16">
+        <v>1702.243558710951</v>
+      </c>
+      <c r="O16">
+        <v>1.683055473957888E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>84.90804741459861</v>
+        <v>84.9080474145987</v>
       </c>
       <c r="B17">
-        <v>4693.220915931435</v>
+        <v>4693.220915931519</v>
       </c>
       <c r="C17">
-        <v>6.66830701836468</v>
+        <v>6.668307018364792</v>
       </c>
       <c r="D17">
-        <v>28574.31238882173</v>
+        <v>28574.31238882172</v>
       </c>
       <c r="E17">
-        <v>9508.719690877018</v>
+        <v>9508.719690877</v>
       </c>
       <c r="F17">
-        <v>8805.073974018864</v>
+        <v>8805.073974018844</v>
       </c>
       <c r="G17">
-        <v>23.35345776432221</v>
+        <v>23.35345776432209</v>
       </c>
       <c r="H17">
-        <v>62.20593056032388</v>
+        <v>62.20593056032355</v>
       </c>
       <c r="I17">
-        <v>1.513924275054687E-09</v>
+        <v>1.513924275054689E-09</v>
       </c>
       <c r="J17">
-        <v>1.514044654068716E-09</v>
+        <v>1.51404465406872E-09</v>
       </c>
       <c r="K17">
-        <v>0.0004850359732673103</v>
+        <v>0.0004850359732673081</v>
       </c>
       <c r="L17">
         <v>0.1971945495035613</v>
       </c>
       <c r="M17">
-        <v>1687.283394655255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1971928124532308</v>
+      </c>
+      <c r="N17">
+        <v>1687.283394655253</v>
+      </c>
+      <c r="O17">
+        <v>1.737050330491765E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>86.24004265615658</v>
+        <v>86.24004265615665</v>
       </c>
       <c r="B18">
-        <v>5777.673111305869</v>
+        <v>5777.673111305905</v>
       </c>
       <c r="C18">
-        <v>8.086865093800212</v>
+        <v>8.086865093800254</v>
       </c>
       <c r="D18">
-        <v>28390.65338091847</v>
+        <v>28390.65338091846</v>
       </c>
       <c r="E18">
-        <v>9427.213629392498</v>
+        <v>9427.213629392494</v>
       </c>
       <c r="F18">
-        <v>8712.965609005158</v>
+        <v>8712.965609005154</v>
       </c>
       <c r="G18">
-        <v>21.73249595942747</v>
+        <v>21.73249595942751</v>
       </c>
       <c r="H18">
-        <v>58.49740907741885</v>
+        <v>58.49740907741879</v>
       </c>
       <c r="I18">
-        <v>1.542153253939083E-09</v>
+        <v>1.542153253939084E-09</v>
       </c>
       <c r="J18">
-        <v>1.574147205151199E-09</v>
+        <v>1.574147205151203E-09</v>
       </c>
       <c r="K18">
-        <v>0.0004582746339740702</v>
+        <v>0.0004582746339740686</v>
       </c>
       <c r="L18">
-        <v>0.1971938158976557</v>
+        <v>0.1971938158976556</v>
       </c>
       <c r="M18">
-        <v>1672.565918515153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1971920214719063</v>
+      </c>
+      <c r="N18">
+        <v>1672.565918515151</v>
+      </c>
+      <c r="O18">
+        <v>1.794425749333337E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>87.57203789771452</v>
+        <v>87.57203789771461</v>
       </c>
       <c r="B19">
-        <v>7056.878339030002</v>
+        <v>7056.878339030264</v>
       </c>
       <c r="C19">
-        <v>9.733238412830163</v>
+        <v>9.733238412830513</v>
       </c>
       <c r="D19">
-        <v>28212.44603341546</v>
+        <v>28212.44603341544</v>
       </c>
       <c r="E19">
-        <v>9350.262484841107</v>
+        <v>9350.262484841114</v>
       </c>
       <c r="F19">
-        <v>8625.483800637314</v>
+        <v>8625.483800637319</v>
       </c>
       <c r="G19">
-        <v>20.23586087350448</v>
+        <v>20.23586087350431</v>
       </c>
       <c r="H19">
-        <v>55.10119829708648</v>
+        <v>55.10119829708619</v>
       </c>
       <c r="I19">
-        <v>1.571244704609927E-09</v>
+        <v>1.571244704609929E-09</v>
       </c>
       <c r="J19">
-        <v>1.637848586127216E-09</v>
+        <v>1.637848586127221E-09</v>
       </c>
       <c r="K19">
-        <v>0.0004318460756864937</v>
+        <v>0.0004318460756864914</v>
       </c>
       <c r="L19">
         <v>0.1971766732063292</v>
       </c>
       <c r="M19">
+        <v>0.1971748178454197</v>
+      </c>
+      <c r="N19">
         <v>1657.97008629199</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>1.855360909506389E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>88.90403313927246</v>
+        <v>88.90403313927257</v>
       </c>
       <c r="B20">
-        <v>8555.769013282301</v>
+        <v>8555.769013282546</v>
       </c>
       <c r="C20">
-        <v>11.63202186767155</v>
+        <v>11.63202186767186</v>
       </c>
       <c r="D20">
-        <v>28039.26152554925</v>
+        <v>28039.26152554923</v>
       </c>
       <c r="E20">
-        <v>9277.444212176561</v>
+        <v>9277.444212176548</v>
       </c>
       <c r="F20">
-        <v>8542.213504232257</v>
+        <v>8542.213504232242</v>
       </c>
       <c r="G20">
-        <v>18.86238956704604</v>
+        <v>18.862389567046</v>
       </c>
       <c r="H20">
-        <v>51.99932907167921</v>
+        <v>51.999329071679</v>
       </c>
       <c r="I20">
-        <v>1.601268332957083E-09</v>
+        <v>1.601268332957087E-09</v>
       </c>
       <c r="J20">
-        <v>1.705363691136511E-09</v>
+        <v>1.705363691136516E-09</v>
       </c>
       <c r="K20">
-        <v>0.0004061565998830014</v>
+        <v>0.0004061565998829989</v>
       </c>
       <c r="L20">
         <v>0.1971361843434468</v>
       </c>
       <c r="M20">
-        <v>1643.406283151943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1971342643063329</v>
+      </c>
+      <c r="N20">
+        <v>1643.406283151941</v>
+      </c>
+      <c r="O20">
+        <v>1.92003711390911E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>90.2360283808304</v>
+        <v>90.23602838083052</v>
       </c>
       <c r="B21">
-        <v>10301.11325890424</v>
+        <v>10301.11325890427</v>
       </c>
       <c r="C21">
-        <v>13.80908398636253</v>
+        <v>13.80908398636256</v>
       </c>
       <c r="D21">
-        <v>27870.70157729163</v>
+        <v>27870.70157729162</v>
       </c>
       <c r="E21">
-        <v>9208.360411485681</v>
+        <v>9208.360411485684</v>
       </c>
       <c r="F21">
-        <v>8462.763572395728</v>
+        <v>8462.763572395726</v>
       </c>
       <c r="G21">
-        <v>17.60850372188523</v>
+        <v>17.60850372188512</v>
       </c>
       <c r="H21">
-        <v>49.17316275484504</v>
+        <v>49.17316275484482</v>
       </c>
       <c r="I21">
-        <v>1.632295159147122E-09</v>
+        <v>1.632295159147125E-09</v>
       </c>
       <c r="J21">
-        <v>1.776910598446298E-09</v>
+        <v>1.776910598446305E-09</v>
       </c>
       <c r="K21">
-        <v>0.0003815405864723541</v>
+        <v>0.0003815405864723521</v>
       </c>
       <c r="L21">
-        <v>0.1970673175732517</v>
+        <v>0.1970673175732516</v>
       </c>
       <c r="M21">
-        <v>1628.811135314769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.1970653289365457</v>
+      </c>
+      <c r="N21">
+        <v>1628.811135314768</v>
+      </c>
+      <c r="O21">
+        <v>1.988636705973725E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>91.56802362238835</v>
+        <v>91.56802362238845</v>
       </c>
       <c r="B22">
-        <v>12321.523826309</v>
+        <v>12321.52382630927</v>
       </c>
       <c r="C22">
-        <v>16.29153864379883</v>
+        <v>16.29153864379917</v>
       </c>
       <c r="D22">
-        <v>27706.39578670925</v>
+        <v>27706.39578670924</v>
       </c>
       <c r="E22">
-        <v>9142.636914023464</v>
+        <v>9142.636914023447</v>
       </c>
       <c r="F22">
-        <v>8386.767320584338</v>
+        <v>8386.76732058432</v>
       </c>
       <c r="G22">
-        <v>16.46893420764273</v>
+        <v>16.4689342076427</v>
       </c>
       <c r="H22">
-        <v>46.60392316399193</v>
+        <v>46.60392316399178</v>
       </c>
       <c r="I22">
-        <v>1.664397870955055E-09</v>
+        <v>1.664397870955058E-09</v>
       </c>
       <c r="J22">
-        <v>1.852709302692752E-09</v>
+        <v>1.852709302692758E-09</v>
       </c>
       <c r="K22">
-        <v>0.0003582488071051969</v>
+        <v>0.0003582488071051949</v>
       </c>
       <c r="L22">
         <v>0.1969666380950039</v>
       </c>
       <c r="M22">
-        <v>1614.142964270168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1969645767531063</v>
+      </c>
+      <c r="N22">
+        <v>1614.142964270166</v>
+      </c>
+      <c r="O22">
+        <v>2.061341897653246E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>92.90001886394629</v>
+        <v>92.90001886394641</v>
       </c>
       <c r="B23">
-        <v>14647.45930223796</v>
+        <v>14647.45930223826</v>
       </c>
       <c r="C23">
-        <v>19.10771564185706</v>
+        <v>19.10771564185743</v>
       </c>
       <c r="D23">
-        <v>27545.99921668899</v>
+        <v>27545.99921668897</v>
       </c>
       <c r="E23">
-        <v>9079.923756929948</v>
+        <v>9079.923756929957</v>
       </c>
       <c r="F23">
-        <v>8313.882481454719</v>
+        <v>8313.882481454724</v>
       </c>
       <c r="G23">
-        <v>15.43729117803107</v>
+        <v>15.43729117803099</v>
       </c>
       <c r="H23">
-        <v>44.27309673875141</v>
+        <v>44.27309673875119</v>
       </c>
       <c r="I23">
-        <v>1.697651199963485E-09</v>
+        <v>1.69765119996349E-09</v>
       </c>
       <c r="J23">
-        <v>1.932980292703674E-09</v>
+        <v>1.932980292703682E-09</v>
       </c>
       <c r="K23">
-        <v>0.0003364461643238185</v>
+        <v>0.0003364461643238164</v>
       </c>
       <c r="L23">
-        <v>0.1968319389122583</v>
+        <v>0.1968319389122582</v>
       </c>
       <c r="M23">
-        <v>1599.377730273649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.1968298005787247</v>
+      </c>
+      <c r="N23">
+        <v>1599.377730273646</v>
+      </c>
+      <c r="O23">
+        <v>2.138333533513764E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>94.23201410550423</v>
+        <v>94.23201410550436</v>
       </c>
       <c r="B24">
-        <v>17311.21792505187</v>
+        <v>17311.2179250525</v>
       </c>
       <c r="C24">
-        <v>22.28713095053362</v>
+        <v>22.28713095053439</v>
       </c>
       <c r="D24">
-        <v>27389.19020474728</v>
+        <v>27389.19020474727</v>
       </c>
       <c r="E24">
-        <v>9019.894703619811</v>
+        <v>9019.894703619802</v>
       </c>
       <c r="F24">
-        <v>8243.790705318128</v>
+        <v>8243.790705318121</v>
       </c>
       <c r="G24">
-        <v>14.50650725315496</v>
+        <v>14.50650725315495</v>
       </c>
       <c r="H24">
-        <v>42.16272568029841</v>
+        <v>42.16272568029824</v>
       </c>
       <c r="I24">
         <v>1.732132320375441E-09</v>
       </c>
       <c r="J24">
-        <v>2.0179429891276E-09</v>
+        <v>2.017942989127606E-09</v>
       </c>
       <c r="K24">
-        <v>0.0003162175843170569</v>
+        <v>0.0003162175843170553</v>
       </c>
       <c r="L24">
         <v>0.196661840563895</v>
       </c>
       <c r="M24">
-        <v>1584.505391155512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1966596207740716</v>
+      </c>
+      <c r="N24">
+        <v>1584.50539115551</v>
+      </c>
+      <c r="O24">
+        <v>2.219789823375135E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>95.5640093470622</v>
+        <v>95.56400934706232</v>
       </c>
       <c r="B25">
-        <v>20346.92437738115</v>
+        <v>20346.9243773811</v>
       </c>
       <c r="C25">
-        <v>25.86045736893761</v>
+        <v>25.86045736893752</v>
       </c>
       <c r="D25">
-        <v>27235.66837257178</v>
+        <v>27235.66837257177</v>
       </c>
       <c r="E25">
-        <v>8962.246436304315</v>
+        <v>8962.246436304304</v>
       </c>
       <c r="F25">
-        <v>8176.19673344867</v>
+        <v>8176.196733448655</v>
       </c>
       <c r="G25">
-        <v>13.6691772619756</v>
+        <v>13.66917726197554</v>
       </c>
       <c r="H25">
-        <v>40.25561512501972</v>
+        <v>40.2556151250196</v>
       </c>
       <c r="I25">
-        <v>1.767921270902649E-09</v>
+        <v>1.767921270902654E-09</v>
       </c>
       <c r="J25">
-        <v>2.107814062730039E-09</v>
+        <v>2.107814062730047E-09</v>
       </c>
       <c r="K25">
-        <v>0.0002975796556714192</v>
+        <v>0.0002975796556714176</v>
       </c>
       <c r="L25">
         <v>0.1964553876231877</v>
       </c>
       <c r="M25">
-        <v>1569.526649422183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.1964530817381039</v>
+      </c>
+      <c r="N25">
+        <v>1569.526649422181</v>
+      </c>
+      <c r="O25">
+        <v>2.305885083805329E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>96.89600458862014</v>
+        <v>96.89600458862027</v>
       </c>
       <c r="B26">
-        <v>23790.50998258552</v>
+        <v>23790.50998258556</v>
       </c>
       <c r="C26">
-        <v>29.85949632591511</v>
+        <v>29.85949632591512</v>
       </c>
       <c r="D26">
-        <v>27085.15281451789</v>
+        <v>27085.15281451788</v>
       </c>
       <c r="E26">
         <v>8906.697521381202</v>
       </c>
       <c r="F26">
-        <v>8110.827345228379</v>
+        <v>8110.827345228383</v>
       </c>
       <c r="G26">
-        <v>12.91781433672013</v>
+        <v>12.91781433671999</v>
       </c>
       <c r="H26">
-        <v>38.53547202947723</v>
+        <v>38.53547202947704</v>
       </c>
       <c r="I26">
-        <v>1.805101400874988E-09</v>
+        <v>1.805101400874989E-09</v>
       </c>
       <c r="J26">
-        <v>2.202805661003717E-09</v>
+        <v>2.202805661003724E-09</v>
       </c>
       <c r="K26">
-        <v>0.0002804952517953348</v>
+        <v>0.0002804952517953336</v>
       </c>
       <c r="L26">
         <v>0.1962116661374021</v>
       </c>
       <c r="M26">
+        <v>0.1962092693488656</v>
+      </c>
+      <c r="N26">
         <v>1554.450083953673</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26">
+        <v>2.39678853643358E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>98.22799983017808</v>
+        <v>98.22799983017822</v>
       </c>
       <c r="B27">
-        <v>27679.68677426087</v>
+        <v>27679.6867742615</v>
       </c>
       <c r="C27">
-        <v>34.31715149668614</v>
+        <v>34.31715149668688</v>
       </c>
       <c r="D27">
-        <v>26937.3804465497</v>
+        <v>26937.38044654969</v>
       </c>
       <c r="E27">
-        <v>8852.987226995219</v>
+        <v>8852.987226995207</v>
       </c>
       <c r="F27">
-        <v>8047.430158638356</v>
+        <v>8047.430158638342</v>
       </c>
       <c r="G27">
-        <v>12.24503889985655</v>
+        <v>12.2450388998564</v>
       </c>
       <c r="H27">
-        <v>36.98699045916506</v>
+        <v>36.98699045916486</v>
       </c>
       <c r="I27">
-        <v>1.843759842375242E-09</v>
+        <v>1.843759842375246E-09</v>
       </c>
       <c r="J27">
-        <v>2.303123577338817E-09</v>
+        <v>2.303123577338827E-09</v>
       </c>
       <c r="K27">
-        <v>0.0002648886727132742</v>
+        <v>0.0002648886727132726</v>
       </c>
       <c r="L27">
         <v>0.1959294613330137</v>
       </c>
       <c r="M27">
+        <v>0.1959269686697955</v>
+      </c>
+      <c r="N27">
         <v>1539.289669436788</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27">
+        <v>2.492663218141482E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>99.55999507173603</v>
+        <v>99.55999507173617</v>
       </c>
       <c r="B28">
-        <v>32053.91594002746</v>
+        <v>32053.91594002802</v>
       </c>
       <c r="C28">
-        <v>39.26740486585039</v>
+        <v>39.26740486585103</v>
       </c>
       <c r="D28">
-        <v>26792.10449911502</v>
+        <v>26792.10449911501</v>
       </c>
       <c r="E28">
-        <v>8800.874254394506</v>
+        <v>8800.874254394503</v>
       </c>
       <c r="F28">
-        <v>7985.772345888033</v>
+        <v>7985.772345888025</v>
       </c>
       <c r="G28">
-        <v>11.64371426029688</v>
+        <v>11.64371426029682</v>
       </c>
       <c r="H28">
-        <v>35.59589538217715</v>
+        <v>35.59589538217705</v>
       </c>
       <c r="I28">
-        <v>1.883988010845416E-09</v>
+        <v>1.883988010845422E-09</v>
       </c>
       <c r="J28">
-        <v>2.408965403032105E-09</v>
+        <v>2.408965403032117E-09</v>
       </c>
       <c r="K28">
-        <v>0.0002506595143449836</v>
+        <v>0.0002506595143449822</v>
       </c>
       <c r="L28">
         <v>0.1956069698302164</v>
       </c>
       <c r="M28">
-        <v>1524.062683083916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1956043761651523</v>
+      </c>
+      <c r="N28">
+        <v>1524.062683083914</v>
+      </c>
+      <c r="O28">
+        <v>2.593665064170977E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>100.891990313294</v>
+        <v>100.8919903132941</v>
       </c>
       <c r="B29">
-        <v>36954.37116253741</v>
+        <v>36954.37116253775</v>
       </c>
       <c r="C29">
-        <v>44.74529582031856</v>
+        <v>44.7452958203189</v>
       </c>
       <c r="D29">
-        <v>26649.09313921223</v>
+        <v>26649.09313921221</v>
       </c>
       <c r="E29">
-        <v>8750.13543026128</v>
+        <v>8750.135430261267</v>
       </c>
       <c r="F29">
-        <v>7925.63931149118</v>
+        <v>7925.639311491166</v>
       </c>
       <c r="G29">
-        <v>11.10704011385747</v>
+        <v>11.10704011385745</v>
       </c>
       <c r="H29">
-        <v>34.34895485004584</v>
+        <v>34.34895485004573</v>
       </c>
       <c r="I29">
-        <v>1.925882137246081E-09</v>
+        <v>1.92588213724609E-09</v>
       </c>
       <c r="J29">
-        <v>2.520518707478829E-09</v>
+        <v>2.520518707478843E-09</v>
       </c>
       <c r="K29">
-        <v>0.0002376942373494814</v>
+        <v>0.0002376942373494797</v>
       </c>
       <c r="L29">
-        <v>0.1952415759248736</v>
+        <v>0.1952415759248735</v>
       </c>
       <c r="M29">
-        <v>1508.787989143921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1952388759826438</v>
+      </c>
+      <c r="N29">
+        <v>1508.787989143918</v>
+      </c>
+      <c r="O29">
+        <v>2.699942229682858E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>102.2239855548519</v>
+        <v>102.2239855548521</v>
       </c>
       <c r="B30">
-        <v>42423.89739269018</v>
+        <v>42423.89739269037</v>
       </c>
       <c r="C30">
-        <v>50.78690380978735</v>
+        <v>50.7869038097875</v>
       </c>
       <c r="D30">
-        <v>26508.12820847209</v>
+        <v>26508.12820847207</v>
       </c>
       <c r="E30">
-        <v>8700.564395491267</v>
+        <v>8700.564395491258</v>
       </c>
       <c r="F30">
-        <v>7866.83336836043</v>
+        <v>7866.833368360422</v>
       </c>
       <c r="G30">
-        <v>10.6286131877316</v>
+        <v>10.6286131877315</v>
       </c>
       <c r="H30">
-        <v>33.23396856955486</v>
+        <v>33.23396856955473</v>
       </c>
       <c r="I30">
-        <v>1.969543835490713E-09</v>
+        <v>1.969543835490715E-09</v>
       </c>
       <c r="J30">
-        <v>2.637959295599419E-09</v>
+        <v>2.637959295599434E-09</v>
       </c>
       <c r="K30">
-        <v>0.0002258750662261471</v>
+        <v>0.0002258750662261459</v>
       </c>
       <c r="L30">
         <v>0.1948296975146251</v>
       </c>
       <c r="M30">
+        <v>0.1948268858799073</v>
+      </c>
+      <c r="N30">
         <v>1493.484681009527</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30">
+        <v>2.81163471784496E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>103.5559807964099</v>
+        <v>103.55598079641</v>
       </c>
       <c r="B31">
-        <v>48506.96559341635</v>
+        <v>48506.96559341766</v>
       </c>
       <c r="C31">
-        <v>57.42933506898964</v>
+        <v>57.4293350689911</v>
       </c>
       <c r="D31">
-        <v>26369.00406546479</v>
+        <v>26369.00406546477</v>
       </c>
       <c r="E31">
-        <v>8651.970316499375</v>
+        <v>8651.970316499372</v>
       </c>
       <c r="F31">
-        <v>7809.172438066893</v>
+        <v>7809.172438066892</v>
       </c>
       <c r="G31">
-        <v>10.20246253935885</v>
+        <v>10.20246253935873</v>
       </c>
       <c r="H31">
-        <v>32.23973929414882</v>
+        <v>32.23973929414863</v>
       </c>
       <c r="I31">
-        <v>2.015080709534783E-09</v>
+        <v>2.015080709534787E-09</v>
       </c>
       <c r="J31">
-        <v>2.761449593556779E-09</v>
+        <v>2.761449593556796E-09</v>
       </c>
       <c r="K31">
-        <v>0.000215086313373074</v>
+        <v>0.0002150863133730726</v>
       </c>
       <c r="L31">
-        <v>0.194366703990474</v>
+        <v>0.1943667039904739</v>
       </c>
       <c r="M31">
-        <v>1478.171050965168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1943637751160911</v>
+      </c>
+      <c r="N31">
+        <v>1478.171050965167</v>
+      </c>
+      <c r="O31">
+        <v>2.928874382739016E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>104.8879760379678</v>
+        <v>104.887976037968</v>
       </c>
       <c r="B32">
-        <v>55249.6239881229</v>
+        <v>55249.62398812379</v>
       </c>
       <c r="C32">
-        <v>64.71071385659087</v>
+        <v>64.71071385659184</v>
       </c>
       <c r="D32">
-        <v>26231.52652167292</v>
+        <v>26231.5265216729</v>
       </c>
       <c r="E32">
-        <v>8604.176637646167</v>
+        <v>8604.176637646169</v>
       </c>
       <c r="F32">
-        <v>7752.488793905498</v>
+        <v>7752.488793905494</v>
       </c>
       <c r="G32">
-        <v>9.823065575522671</v>
+        <v>9.823065575522646</v>
       </c>
       <c r="H32">
-        <v>31.35603215351288</v>
+        <v>31.35603215351282</v>
       </c>
       <c r="I32">
-        <v>2.06260700518853E-09</v>
+        <v>2.06260700518854E-09</v>
       </c>
       <c r="J32">
-        <v>2.891137213850964E-09</v>
+        <v>2.891137213850979E-09</v>
       </c>
       <c r="K32">
-        <v>0.0002052184868990216</v>
+        <v>0.0002052184868990202</v>
       </c>
       <c r="L32">
-        <v>0.1938469057298356</v>
+        <v>0.1938469057298354</v>
       </c>
       <c r="M32">
-        <v>1462.863850308278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1938438539444623</v>
+      </c>
+      <c r="N32">
+        <v>1462.863850308275</v>
+      </c>
+      <c r="O32">
+        <v>3.051785373101533E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>106.2199712795258</v>
+        <v>106.2199712795259</v>
       </c>
       <c r="B33">
-        <v>62699.44633706881</v>
+        <v>62699.44633706971</v>
       </c>
       <c r="C33">
-        <v>72.67017863156362</v>
+        <v>72.67017863156457</v>
       </c>
       <c r="D33">
-        <v>26095.51186166378</v>
+        <v>26095.51186166376</v>
       </c>
       <c r="E33">
-        <v>8557.019887480858</v>
+        <v>8557.019887480848</v>
       </c>
       <c r="F33">
-        <v>7696.627859490151</v>
+        <v>7696.62785949014</v>
       </c>
       <c r="G33">
-        <v>9.485349658649103</v>
+        <v>9.48534965864901</v>
       </c>
       <c r="H33">
-        <v>30.57352595840596</v>
+        <v>30.57352595840576</v>
       </c>
       <c r="I33">
-        <v>2.11224431245669E-09</v>
+        <v>2.112244312456698E-09</v>
       </c>
       <c r="J33">
-        <v>3.027153748775996E-09</v>
+        <v>3.027153748776014E-09</v>
       </c>
       <c r="K33">
-        <v>0.0001961706455857017</v>
+        <v>0.0001961706455857005</v>
       </c>
       <c r="L33">
-        <v>0.1932636125143306</v>
+        <v>0.1932636125143304</v>
       </c>
       <c r="M33">
-        <v>1447.577798322786</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1932604320292525</v>
+      </c>
+      <c r="N33">
+        <v>1447.577798322784</v>
+      </c>
+      <c r="O33">
+        <v>3.180485077925871E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>107.5519665210837</v>
+        <v>107.5519665210839</v>
       </c>
       <c r="B34">
-        <v>70905.47774885755</v>
+        <v>70905.47774885935</v>
       </c>
       <c r="C34">
-        <v>81.34788356055221</v>
+        <v>81.34788356055417</v>
       </c>
       <c r="D34">
-        <v>25960.78593896398</v>
+        <v>25960.78593896396</v>
       </c>
       <c r="E34">
-        <v>8510.348546888707</v>
+        <v>8510.348546888697</v>
       </c>
       <c r="F34">
-        <v>7641.447070982687</v>
+        <v>7641.447070982679</v>
       </c>
       <c r="G34">
-        <v>9.184683178089866</v>
+        <v>9.184683178089852</v>
       </c>
       <c r="H34">
-        <v>29.88375963111936</v>
+        <v>29.88375963111934</v>
       </c>
       <c r="I34">
-        <v>2.164122325004833E-09</v>
+        <v>2.164122325004842E-09</v>
       </c>
       <c r="J34">
-        <v>3.169613836960616E-09</v>
+        <v>3.169613836960638E-09</v>
       </c>
       <c r="K34">
-        <v>0.000187851463382842</v>
+        <v>0.0001878514633828408</v>
       </c>
       <c r="L34">
-        <v>0.1926092561398059</v>
+        <v>0.1926092561398058</v>
       </c>
       <c r="M34">
-        <v>1432.325297339822</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1926059410541783</v>
+      </c>
+      <c r="N34">
+        <v>1432.32529733982</v>
+      </c>
+      <c r="O34">
+        <v>3.315085627461031E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>108.8839617626416</v>
+        <v>108.8839617626418</v>
       </c>
       <c r="B35">
-        <v>79918.17851383607</v>
+        <v>79918.17851383734</v>
       </c>
       <c r="C35">
-        <v>90.78500573002401</v>
+        <v>90.7850057300253</v>
       </c>
       <c r="D35">
-        <v>25827.1833400015</v>
+        <v>25827.18334000148</v>
       </c>
       <c r="E35">
-        <v>8464.021983675066</v>
+        <v>8464.021983675062</v>
       </c>
       <c r="F35">
-        <v>7586.814807496835</v>
+        <v>7586.814807496825</v>
       </c>
       <c r="G35">
-        <v>8.91685915243926</v>
+        <v>8.916859152439178</v>
       </c>
       <c r="H35">
-        <v>29.27907618974239</v>
+        <v>29.2790761897423</v>
       </c>
       <c r="I35">
-        <v>2.218379664226771E-09</v>
+        <v>2.218379664226783E-09</v>
       </c>
       <c r="J35">
-        <v>3.318614541407502E-09</v>
+        <v>3.318614541407528E-09</v>
       </c>
       <c r="K35">
-        <v>0.0001801794073792772</v>
+        <v>0.0001801794073792758</v>
       </c>
       <c r="L35">
-        <v>0.1918755707321943</v>
+        <v>0.1918755707321941</v>
       </c>
       <c r="M35">
-        <v>1417.116312433152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1918721150362009</v>
+      </c>
+      <c r="N35">
+        <v>1417.11631243315</v>
+      </c>
+      <c r="O35">
+        <v>3.455695993267509E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>110.2159570041996</v>
+        <v>110.2159570041998</v>
       </c>
       <c r="B36">
-        <v>89789.36642282715</v>
+        <v>89789.36642282893</v>
       </c>
       <c r="C36">
-        <v>101.023758426245</v>
+        <v>101.0237584262469</v>
       </c>
       <c r="D36">
-        <v>25694.54660924566</v>
+        <v>25694.54660924565</v>
       </c>
       <c r="E36">
-        <v>8417.909455406992</v>
+        <v>8417.909455406969</v>
       </c>
       <c r="F36">
-        <v>7532.609391505295</v>
+        <v>7532.609391505277</v>
       </c>
       <c r="G36">
-        <v>8.678073766270865</v>
+        <v>8.678073766270789</v>
       </c>
       <c r="H36">
-        <v>28.75256613005542</v>
+        <v>28.75256613005531</v>
       </c>
       <c r="I36">
-        <v>2.275164776359978E-09</v>
+        <v>2.275164776359982E-09</v>
       </c>
       <c r="J36">
-        <v>3.474235069355708E-09</v>
+        <v>3.474235069355726E-09</v>
       </c>
       <c r="K36">
-        <v>0.0001730823523316511</v>
+        <v>0.0001730823523316504</v>
       </c>
       <c r="L36">
-        <v>0.191053823049674</v>
+        <v>0.1910538230496739</v>
       </c>
       <c r="M36">
-        <v>1401.958377516215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1910502206249547</v>
+      </c>
+      <c r="N36">
+        <v>1401.958377516214</v>
+      </c>
+      <c r="O36">
+        <v>3.602424719198876E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>111.5479522457576</v>
+        <v>111.5479522457577</v>
       </c>
       <c r="B37">
-        <v>100572.158009124</v>
+        <v>100572.1580091235</v>
       </c>
       <c r="C37">
-        <v>112.1074108451017</v>
+        <v>112.107410845101</v>
       </c>
       <c r="D37">
-        <v>25562.72552935564</v>
+        <v>25562.72552935562</v>
       </c>
       <c r="E37">
-        <v>8371.889180299453</v>
+        <v>8371.889180299448</v>
       </c>
       <c r="F37">
-        <v>7478.718159046874</v>
+        <v>7478.718159046868</v>
       </c>
       <c r="G37">
-        <v>8.464901706580664</v>
+        <v>8.464901706580637</v>
       </c>
       <c r="H37">
-        <v>28.29801157933955</v>
+        <v>28.29801157933947</v>
       </c>
       <c r="I37">
-        <v>2.334636912187751E-09</v>
+        <v>2.334636912187756E-09</v>
       </c>
       <c r="J37">
-        <v>3.636536854809711E-09</v>
+        <v>3.63653685480973E-09</v>
       </c>
       <c r="K37">
-        <v>0.000166496873103278</v>
+        <v>0.0001664968731032771</v>
       </c>
       <c r="L37">
-        <v>0.190135084666076</v>
+        <v>0.1901350846660759</v>
       </c>
       <c r="M37">
-        <v>1386.856694048062</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1901313292827739</v>
+      </c>
+      <c r="N37">
+        <v>1386.856694048061</v>
+      </c>
+      <c r="O37">
+        <v>3.755383301989771E-06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>112.8799474873155</v>
+        <v>112.8799474873157</v>
       </c>
       <c r="B38">
-        <v>112320.9091252498</v>
+        <v>112320.9091252521</v>
       </c>
       <c r="C38">
-        <v>124.0803146038564</v>
+        <v>124.0803146038587</v>
       </c>
       <c r="D38">
-        <v>25431.57645075229</v>
+        <v>25431.57645075227</v>
       </c>
       <c r="E38">
-        <v>8325.847474434722</v>
+        <v>8325.84747443471</v>
       </c>
       <c r="F38">
-        <v>7425.036598039098</v>
+        <v>7425.036598039084</v>
       </c>
       <c r="G38">
-        <v>8.274269729530022</v>
+        <v>8.274269729529996</v>
       </c>
       <c r="H38">
-        <v>27.90983222180937</v>
+        <v>27.9098322218093</v>
       </c>
       <c r="I38">
-        <v>2.396967200101353E-09</v>
+        <v>2.396967200101364E-09</v>
       </c>
       <c r="J38">
-        <v>3.805564014199299E-09</v>
+        <v>3.805564014199331E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001603673848003752</v>
+        <v>0.0001603673848003743</v>
       </c>
       <c r="L38">
         <v>0.1891105386806866</v>
       </c>
       <c r="M38">
-        <v>1371.814293599696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1891066239904603</v>
+      </c>
+      <c r="N38">
+        <v>1371.814293599693</v>
+      </c>
+      <c r="O38">
+        <v>3.914690226259493E-06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>114.2119427288734</v>
+        <v>114.2119427288737</v>
       </c>
       <c r="B39">
-        <v>125091.1552393279</v>
+        <v>125091.1552393302</v>
       </c>
       <c r="C39">
-        <v>136.9879374489743</v>
+        <v>136.9879374489768</v>
       </c>
       <c r="D39">
-        <v>25300.9616655647</v>
+        <v>25300.96166556468</v>
       </c>
       <c r="E39">
         <v>8279.677952524899</v>
       </c>
       <c r="F39">
-        <v>7371.467551934659</v>
+        <v>7371.467551934657</v>
       </c>
       <c r="G39">
-        <v>8.103429538947488</v>
+        <v>8.103429538947482</v>
       </c>
       <c r="H39">
-        <v>27.58303369903783</v>
+        <v>27.5830336990378</v>
       </c>
       <c r="I39">
-        <v>2.462339824700006E-09</v>
+        <v>2.462339824700018E-09</v>
       </c>
       <c r="J39">
-        <v>3.981344174915046E-09</v>
+        <v>3.981344174915077E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001546452430452638</v>
+        <v>0.0001546452430452629</v>
       </c>
       <c r="L39">
-        <v>0.1879718155204774</v>
+        <v>0.1879718155204773</v>
       </c>
       <c r="M39">
-        <v>1356.832240682979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1879677350448325</v>
+      </c>
+      <c r="N39">
+        <v>1356.832240682976</v>
+      </c>
+      <c r="O39">
+        <v>4.080475644756535E-06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>115.5439379704314</v>
+        <v>115.5439379704316</v>
       </c>
       <c r="B40">
-        <v>138939.5518100549</v>
+        <v>138939.5518100576</v>
       </c>
       <c r="C40">
-        <v>150.8769045897095</v>
+        <v>150.8769045897123</v>
       </c>
       <c r="D40">
-        <v>25170.74882137894</v>
+        <v>25170.74882137893</v>
       </c>
       <c r="E40">
-        <v>8233.280788678103</v>
+        <v>8233.280788678087</v>
       </c>
       <c r="F40">
-        <v>7317.920485224719</v>
+        <v>7317.92048522471</v>
       </c>
       <c r="G40">
-        <v>7.94993077927948</v>
+        <v>7.949930779279495</v>
       </c>
       <c r="H40">
-        <v>27.31315895643705</v>
+        <v>27.31315895643699</v>
       </c>
       <c r="I40">
-        <v>2.53095332471323E-09</v>
+        <v>2.530953324713229E-09</v>
       </c>
       <c r="J40">
-        <v>4.163889665981954E-09</v>
+        <v>4.163889665981973E-09</v>
       </c>
       <c r="K40">
-        <v>0.0001492878737513737</v>
+        <v>0.0001492878737513733</v>
       </c>
       <c r="L40">
         <v>0.186711355034707</v>
       </c>
       <c r="M40">
-        <v>1341.9098571428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1867071021480255</v>
+      </c>
+      <c r="N40">
+        <v>1341.909857142799</v>
+      </c>
+      <c r="O40">
+        <v>4.252886681414683E-06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>116.8759332119893</v>
+        <v>116.8759332119895</v>
       </c>
       <c r="B41">
-        <v>153923.8150748703</v>
+        <v>153923.8150748725</v>
       </c>
       <c r="C41">
-        <v>165.7950481374984</v>
+        <v>165.7950481375005</v>
       </c>
       <c r="D41">
-        <v>25040.81037063935</v>
+        <v>25040.81037063932</v>
       </c>
       <c r="E41">
-        <v>8186.562033126695</v>
+        <v>8186.562033126703</v>
       </c>
       <c r="F41">
-        <v>7264.310806808237</v>
+        <v>7264.310806808242</v>
       </c>
       <c r="G41">
-        <v>7.8115947246038</v>
+        <v>7.811594724603741</v>
       </c>
       <c r="H41">
-        <v>27.09624282677412</v>
+        <v>27.09624282677405</v>
       </c>
       <c r="I41">
-        <v>2.603022025874395E-09</v>
+        <v>2.603022025874407E-09</v>
       </c>
       <c r="J41">
-        <v>4.353199050440203E-09</v>
+        <v>4.353199050440234E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001442579711023479</v>
+        <v>0.000144257971102347</v>
       </c>
       <c r="L41">
-        <v>0.1853227942940329</v>
+        <v>0.1853227942940326</v>
       </c>
       <c r="M41">
-        <v>1327.044953830194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1853183622007097</v>
+      </c>
+      <c r="N41">
+        <v>1327.044953830192</v>
+      </c>
+      <c r="O41">
+        <v>4.432093322922899E-06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>118.2079284535473</v>
+        <v>118.2079284535475</v>
       </c>
       <c r="B42">
-        <v>170102.6635636914</v>
+        <v>170102.6635636969</v>
       </c>
       <c r="C42">
-        <v>181.7914651981072</v>
+        <v>181.7914651981129</v>
       </c>
       <c r="D42">
-        <v>24911.02305192786</v>
+        <v>24911.02305192784</v>
       </c>
       <c r="E42">
-        <v>8139.432980566122</v>
+        <v>8139.432980566128</v>
       </c>
       <c r="F42">
-        <v>7210.559246956824</v>
+        <v>7210.55924695683</v>
       </c>
       <c r="G42">
-        <v>7.686489071286326</v>
+        <v>7.686489071286319</v>
       </c>
       <c r="H42">
-        <v>26.92877000394344</v>
+        <v>26.92877000394342</v>
       </c>
       <c r="I42">
-        <v>2.678777626499879E-09</v>
+        <v>2.678777626499888E-09</v>
       </c>
       <c r="J42">
-        <v>4.549258970579181E-09</v>
+        <v>4.549258970579214E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001395227816847145</v>
+        <v>0.0001395227816847138</v>
       </c>
       <c r="L42">
-        <v>0.1838013804795769</v>
+        <v>0.1838013804795766</v>
       </c>
       <c r="M42">
-        <v>1312.234059089415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.1837967621847222</v>
+      </c>
+      <c r="N42">
+        <v>1312.234059089413</v>
+      </c>
+      <c r="O42">
+        <v>4.61829485435118E-06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>119.5399236951052</v>
+        <v>119.5399236951054</v>
       </c>
       <c r="B43">
-        <v>187535.7606313067</v>
+        <v>187535.7606313113</v>
       </c>
       <c r="C43">
-        <v>198.9165852490012</v>
+        <v>198.9165852490059</v>
       </c>
       <c r="D43">
-        <v>24781.26739967904</v>
+        <v>24781.26739967901</v>
       </c>
       <c r="E43">
-        <v>8091.809585581381</v>
+        <v>8091.809585581371</v>
       </c>
       <c r="F43">
-        <v>7156.591283456193</v>
+        <v>7156.591283456178</v>
       </c>
       <c r="G43">
-        <v>7.572904106067385</v>
+        <v>7.572904106067366</v>
       </c>
       <c r="H43">
-        <v>26.80763645663663</v>
+        <v>26.80763645663665</v>
       </c>
       <c r="I43">
-        <v>2.758470955984229E-09</v>
+        <v>2.758470955984252E-09</v>
       </c>
       <c r="J43">
-        <v>4.752046270399648E-09</v>
+        <v>4.752046270399692E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001350534794197313</v>
+        <v>0.0001350534794197302</v>
       </c>
       <c r="L43">
-        <v>0.182144403808044</v>
+        <v>0.1821444038080435</v>
       </c>
       <c r="M43">
-        <v>1297.47263676763</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1821395920812567</v>
+      </c>
+      <c r="N43">
+        <v>1297.472636767625</v>
+      </c>
+      <c r="O43">
+        <v>4.811726786805641E-06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>120.8719189366632</v>
+        <v>120.8719189366634</v>
       </c>
       <c r="B44">
-        <v>206283.6582855182</v>
+        <v>206283.6582855196</v>
       </c>
       <c r="C44">
-        <v>217.2222475405478</v>
+        <v>217.2222475405489</v>
       </c>
       <c r="D44">
-        <v>24651.42727918378</v>
+        <v>24651.42727918375</v>
       </c>
       <c r="E44">
-        <v>8043.611920567977</v>
+        <v>8043.611920567962</v>
       </c>
       <c r="F44">
-        <v>7102.33661245973</v>
+        <v>7102.336612459715</v>
       </c>
       <c r="G44">
-        <v>7.469330416481071</v>
+        <v>7.469330416481118</v>
       </c>
       <c r="H44">
-        <v>26.73011425541313</v>
+        <v>26.7301142554132</v>
       </c>
       <c r="I44">
-        <v>2.842373929268863E-09</v>
+        <v>2.842373929268875E-09</v>
       </c>
       <c r="J44">
-        <v>4.961530354813588E-09</v>
+        <v>4.961530354813627E-09</v>
       </c>
       <c r="K44">
-        <v>0.0001308246279716193</v>
+        <v>0.0001308246279716186</v>
       </c>
       <c r="L44">
-        <v>0.1803516348341542</v>
+        <v>0.180351634834154</v>
       </c>
       <c r="M44">
-        <v>1282.755289011759</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1803466221659342</v>
+      </c>
+      <c r="N44">
+        <v>1282.755289011756</v>
+      </c>
+      <c r="O44">
+        <v>5.012668219780436E-06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>122.2039141782211</v>
+        <v>122.2039141782214</v>
       </c>
       <c r="B45">
-        <v>226407.7425764338</v>
+        <v>226407.7425764383</v>
       </c>
       <c r="C45">
-        <v>236.7617893896499</v>
+        <v>236.7617893896542</v>
       </c>
       <c r="D45">
-        <v>24521.38944399543</v>
+        <v>24521.3894439954</v>
       </c>
       <c r="E45">
-        <v>7994.763671555002</v>
+        <v>7994.763671554999</v>
       </c>
       <c r="F45">
-        <v>7047.728659616873</v>
+        <v>7047.728659616866</v>
       </c>
       <c r="G45">
-        <v>7.374438230482988</v>
+        <v>7.374438230482925</v>
       </c>
       <c r="H45">
-        <v>26.69381973243005</v>
+        <v>26.69381973243002</v>
       </c>
       <c r="I45">
-        <v>2.930781723649289E-09</v>
+        <v>2.93078172364931E-09</v>
       </c>
       <c r="J45">
-        <v>5.177675742250085E-09</v>
+        <v>5.177675742250129E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001268137230004384</v>
+        <v>0.0001268137230004376</v>
       </c>
       <c r="L45">
-        <v>0.1784257335726536</v>
+        <v>0.1784257335726531</v>
       </c>
       <c r="M45">
-        <v>1268.075941108536</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1784205121230746</v>
+      </c>
+      <c r="N45">
+        <v>1268.075941108533</v>
+      </c>
+      <c r="O45">
+        <v>5.221449578542623E-06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>123.5359094197791</v>
+        <v>123.5359094197793</v>
       </c>
       <c r="B46">
-        <v>247970.180804827</v>
+        <v>247970.180804831</v>
       </c>
       <c r="C46">
-        <v>257.5901463906224</v>
+        <v>257.5901463906262</v>
       </c>
       <c r="D46">
-        <v>24391.04311308407</v>
+        <v>24391.04311308405</v>
       </c>
       <c r="E46">
-        <v>7945.191667382782</v>
+        <v>7945.191667382765</v>
       </c>
       <c r="F46">
-        <v>6992.70412711124</v>
+        <v>6992.704127111223</v>
       </c>
       <c r="G46">
-        <v>7.287058412068132</v>
+        <v>7.287058412068152</v>
       </c>
       <c r="H46">
-        <v>26.69668485629115</v>
+        <v>26.69668485629118</v>
       </c>
       <c r="I46">
-        <v>3.024015208139869E-09</v>
+        <v>3.024015208139886E-09</v>
       </c>
       <c r="J46">
-        <v>5.400444766506361E-09</v>
+        <v>5.400444766506404E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001230008047205075</v>
+        <v>0.0001230008047205068</v>
       </c>
       <c r="L46">
-        <v>0.1763725774837741</v>
+        <v>0.1763725774837737</v>
       </c>
       <c r="M46">
-        <v>1253.428007124313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1763671390231068</v>
+      </c>
+      <c r="N46">
+        <v>1253.42800712431</v>
+      </c>
+      <c r="O46">
+        <v>5.438460666934023E-06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>124.867904661337</v>
+        <v>124.8679046613372</v>
       </c>
       <c r="B47">
-        <v>271033.8708053807</v>
+        <v>271033.8708053896</v>
       </c>
       <c r="C47">
-        <v>279.7639657549553</v>
+        <v>279.7639657549644</v>
       </c>
       <c r="D47">
-        <v>24260.27956528911</v>
+        <v>24260.27956528909</v>
       </c>
       <c r="E47">
-        <v>7894.825437761786</v>
+        <v>7894.82543776177</v>
       </c>
       <c r="F47">
-        <v>6937.202572345928</v>
+        <v>6937.202572345915</v>
       </c>
       <c r="G47">
-        <v>7.206165095392422</v>
+        <v>7.206165095392483</v>
       </c>
       <c r="H47">
-        <v>26.73693168143034</v>
+        <v>26.7369316814304</v>
       </c>
       <c r="I47">
-        <v>3.122423660115597E-09</v>
+        <v>3.122423660115616E-09</v>
       </c>
       <c r="J47">
-        <v>5.629800384732678E-09</v>
+        <v>5.629800384732722E-09</v>
       </c>
       <c r="K47">
-        <v>0.0001193681308156968</v>
+        <v>0.000119368130815696</v>
       </c>
       <c r="L47">
-        <v>0.1742014378575365</v>
+        <v>0.174201437857536</v>
       </c>
       <c r="M47">
-        <v>1238.80453619094</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1741957736985574</v>
+      </c>
+      <c r="N47">
+        <v>1238.804536190937</v>
+      </c>
+      <c r="O47">
+        <v>5.664158978642764E-06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>126.1998999028949</v>
+        <v>126.1998999028952</v>
       </c>
       <c r="B48">
-        <v>295662.39256391</v>
+        <v>295662.3925639145</v>
       </c>
       <c r="C48">
-        <v>303.3417342126648</v>
+        <v>303.3417342126691</v>
       </c>
       <c r="D48">
-        <v>24128.99174880241</v>
+        <v>24128.99174880239</v>
       </c>
       <c r="E48">
-        <v>7843.59679582468</v>
+        <v>7843.596795824672</v>
       </c>
       <c r="F48">
-        <v>6881.166014126917</v>
+        <v>6881.16601412691</v>
       </c>
       <c r="G48">
-        <v>7.130859908159035</v>
+        <v>7.130859908159061</v>
       </c>
       <c r="H48">
-        <v>26.81304971924157</v>
+        <v>26.81304971924165</v>
       </c>
       <c r="I48">
-        <v>3.226387809221641E-09</v>
+        <v>3.226387809221659E-09</v>
       </c>
       <c r="J48">
-        <v>5.865709051141849E-09</v>
+        <v>5.865709051141886E-09</v>
       </c>
       <c r="K48">
-        <v>0.000115899900225809</v>
+        <v>0.0001158999002258085</v>
       </c>
       <c r="L48">
-        <v>0.1719249285854374</v>
+        <v>0.171924928585437</v>
       </c>
       <c r="M48">
-        <v>1224.198340040689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1719190295072223</v>
+      </c>
+      <c r="N48">
+        <v>1224.198340040687</v>
+      </c>
+      <c r="O48">
+        <v>5.899078214728447E-06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>127.5318951444529</v>
+        <v>127.5318951444532</v>
       </c>
       <c r="B49">
-        <v>321919.9624370496</v>
+        <v>321919.9624370548</v>
       </c>
       <c r="C49">
-        <v>328.3839221683384</v>
+        <v>328.3839221683434</v>
       </c>
       <c r="D49">
-        <v>23997.0739035745</v>
+        <v>23997.07390357447</v>
       </c>
       <c r="E49">
-        <v>7791.439440870948</v>
+        <v>7791.439440870936</v>
       </c>
       <c r="F49">
-        <v>6824.538562311399</v>
+        <v>6824.538562311379</v>
       </c>
       <c r="G49">
-        <v>7.060357713137242</v>
+        <v>7.060357713137226</v>
       </c>
       <c r="H49">
-        <v>26.92377607451771</v>
+        <v>26.92377607451776</v>
       </c>
       <c r="I49">
-        <v>3.3363232547304E-09</v>
+        <v>3.336323254730436E-09</v>
       </c>
       <c r="J49">
-        <v>6.10814362009432E-09</v>
+        <v>6.108143620094375E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001125820192367342</v>
+        <v>0.0001125820192367335</v>
       </c>
       <c r="L49">
-        <v>0.1695586663744161</v>
+        <v>0.1695586663744157</v>
       </c>
       <c r="M49">
-        <v>1209.602102887358</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.169552522537454</v>
+      </c>
+      <c r="N49">
+        <v>1209.602102887353</v>
+      </c>
+      <c r="O49">
+        <v>6.143836961664154E-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>128.8638903860108</v>
+        <v>128.8638903860111</v>
       </c>
       <c r="B50">
-        <v>349871.3902586455</v>
+        <v>349871.3902586513</v>
       </c>
       <c r="C50">
-        <v>354.9531461100216</v>
+        <v>354.953146110027</v>
       </c>
       <c r="D50">
-        <v>23864.42119467871</v>
+        <v>23864.42119467868</v>
       </c>
       <c r="E50">
-        <v>7738.2885770851</v>
+        <v>7738.288577085082</v>
       </c>
       <c r="F50">
-        <v>6767.266066997071</v>
+        <v>6767.266066997047</v>
       </c>
       <c r="G50">
-        <v>6.993973782380912</v>
+        <v>6.993973782380963</v>
       </c>
       <c r="H50">
-        <v>27.06807819376272</v>
+        <v>27.06807819376286</v>
       </c>
       <c r="I50">
-        <v>3.452684309814514E-09</v>
+        <v>3.452684309814552E-09</v>
       </c>
       <c r="J50">
-        <v>6.357086247296832E-09</v>
+        <v>6.35708624729689E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001094019024143397</v>
+        <v>0.0001094019024143388</v>
       </c>
       <c r="L50">
-        <v>0.167120620661684</v>
+        <v>0.1671206206616833</v>
       </c>
       <c r="M50">
-        <v>1195.008475044513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1671142215141912</v>
+      </c>
+      <c r="N50">
+        <v>1195.008475044508</v>
+      </c>
+      <c r="O50">
+        <v>6.399147492138093E-06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>130.1958856275688</v>
+        <v>130.1958856275691</v>
       </c>
       <c r="B51">
-        <v>379582.0396400808</v>
+        <v>379582.0396400871</v>
       </c>
       <c r="C51">
-        <v>383.1143516255917</v>
+        <v>383.1143516255977</v>
       </c>
       <c r="D51">
-        <v>23730.92935479369</v>
+        <v>23730.92935479367</v>
       </c>
       <c r="E51">
         <v>7684.080544078481</v>
@@ -2576,2075 +2882,2381 @@
         <v>6709.295783423659</v>
       </c>
       <c r="G51">
-        <v>6.931112310339281</v>
+        <v>6.931112310339296</v>
       </c>
       <c r="H51">
-        <v>27.24513908030319</v>
+        <v>27.24513908030323</v>
       </c>
       <c r="I51">
-        <v>3.575968334813242E-09</v>
+        <v>3.575968334813263E-09</v>
       </c>
       <c r="J51">
-        <v>6.612531263626927E-09</v>
+        <v>6.612531263626966E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001063483020558181</v>
+        <v>0.0001063483020558177</v>
       </c>
       <c r="L51">
-        <v>0.1646301891406197</v>
+        <v>0.1646301891406193</v>
       </c>
       <c r="M51">
-        <v>1180.410151815954</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1646235233159597</v>
+      </c>
+      <c r="N51">
+        <v>1180.410151815951</v>
+      </c>
+      <c r="O51">
+        <v>6.66582465964416E-06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>131.5278808691267</v>
+        <v>131.527880869127</v>
       </c>
       <c r="B52">
-        <v>411117.791801563</v>
+        <v>411117.7918015697</v>
       </c>
       <c r="C52">
-        <v>412.9350197955735</v>
+        <v>412.9350197955798</v>
       </c>
       <c r="D52">
-        <v>23596.49433407513</v>
+        <v>23596.4943340751</v>
       </c>
       <c r="E52">
-        <v>7628.752455157232</v>
+        <v>7628.752455157201</v>
       </c>
       <c r="F52">
-        <v>6650.576048835011</v>
+        <v>6650.576048834975</v>
       </c>
       <c r="G52">
-        <v>6.871256168108277</v>
+        <v>6.871256168108304</v>
       </c>
       <c r="H52">
-        <v>27.45434484372169</v>
+        <v>27.45434484372183</v>
       </c>
       <c r="I52">
-        <v>3.706720631770554E-09</v>
+        <v>3.706720631770587E-09</v>
       </c>
       <c r="J52">
-        <v>6.874488002235897E-09</v>
+        <v>6.874488002235945E-09</v>
       </c>
       <c r="K52">
-        <v>0.0001034111609005754</v>
+        <v>0.0001034111609005748</v>
       </c>
       <c r="L52">
-        <v>0.1621070955897451</v>
+        <v>0.1621070955897446</v>
       </c>
       <c r="M52">
-        <v>1165.799939230183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.1621001507948772</v>
+      </c>
+      <c r="N52">
+        <v>1165.799939230179</v>
+      </c>
+      <c r="O52">
+        <v>6.944794867362434E-06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>132.8598761106847</v>
+        <v>132.859876110685</v>
       </c>
       <c r="B53">
-        <v>444545.0133095986</v>
+        <v>444545.0133096064</v>
       </c>
       <c r="C53">
-        <v>444.4854002131113</v>
+        <v>444.4854002131187</v>
       </c>
       <c r="D53">
-        <v>23461.01195578439</v>
+        <v>23461.01195578436</v>
       </c>
       <c r="E53">
-        <v>7572.241839251927</v>
+        <v>7572.241839251916</v>
       </c>
       <c r="F53">
-        <v>6591.055967605121</v>
+        <v>6591.055967605107</v>
       </c>
       <c r="G53">
-        <v>6.813957800498478</v>
+        <v>6.813957800498455</v>
       </c>
       <c r="H53">
-        <v>27.69527446735017</v>
+        <v>27.69527446735028</v>
       </c>
       <c r="I53">
-        <v>3.84553998465166E-09</v>
+        <v>3.845539984651698E-09</v>
       </c>
       <c r="J53">
-        <v>7.142983565800403E-09</v>
+        <v>7.142983565800465E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001005814837997073</v>
+        <v>0.0001005814837997066</v>
       </c>
       <c r="L53">
-        <v>0.1595702506339053</v>
+        <v>0.1595702506339046</v>
       </c>
       <c r="M53">
-        <v>1151.170808152224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1595630135288031</v>
+      </c>
+      <c r="N53">
+        <v>1151.170808152221</v>
+      </c>
+      <c r="O53">
+        <v>7.237105101494749E-06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>134.1918713522426</v>
+        <v>134.1918713522429</v>
       </c>
       <c r="B54">
-        <v>479930.5281416302</v>
+        <v>479930.5281416333</v>
       </c>
       <c r="C54">
-        <v>477.8387744393387</v>
+        <v>477.8387744393407</v>
       </c>
       <c r="D54">
-        <v>23324.37757612588</v>
+        <v>23324.37757612585</v>
       </c>
       <c r="E54">
-        <v>7514.486282456595</v>
+        <v>7514.486282456588</v>
       </c>
       <c r="F54">
-        <v>6530.685100962828</v>
+        <v>6530.685100962815</v>
       </c>
       <c r="G54">
-        <v>6.758831169441386</v>
+        <v>6.758831169441347</v>
       </c>
       <c r="H54">
-        <v>27.96769169688834</v>
+        <v>27.96769169688842</v>
       </c>
       <c r="I54">
-        <v>3.993084944114665E-09</v>
+        <v>3.993084944114709E-09</v>
       </c>
       <c r="J54">
-        <v>7.418065526852591E-09</v>
+        <v>7.418065526852656E-09</v>
       </c>
       <c r="K54">
-        <v>9.785122487141974E-05</v>
+        <v>9.785122487141906E-05</v>
       </c>
       <c r="L54">
-        <v>0.1570367272304067</v>
+        <v>0.1570367272304061</v>
       </c>
       <c r="M54">
-        <v>1136.515938218238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1570291832983773</v>
+      </c>
+      <c r="N54">
+        <v>1136.515938218234</v>
+      </c>
+      <c r="O54">
+        <v>7.543932028742768E-06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>135.5238665938006</v>
+        <v>135.5238665938009</v>
       </c>
       <c r="B55">
-        <v>517341.5945532973</v>
+        <v>517341.5945533069</v>
       </c>
       <c r="C55">
-        <v>513.0717543476762</v>
+        <v>513.0717543476854</v>
       </c>
       <c r="D55">
-        <v>23186.48574681542</v>
+        <v>23186.48574681539</v>
       </c>
       <c r="E55">
-        <v>7455.423065112366</v>
+        <v>7455.423065112349</v>
       </c>
       <c r="F55">
-        <v>6469.413157652237</v>
+        <v>6469.413157652223</v>
       </c>
       <c r="G55">
-        <v>6.705544650864184</v>
+        <v>6.705544650864161</v>
       </c>
       <c r="H55">
-        <v>28.27153897557258</v>
+        <v>28.27153897557262</v>
       </c>
       <c r="I55">
-        <v>4.150080973046501E-09</v>
+        <v>4.15008097304653E-09</v>
       </c>
       <c r="J55">
-        <v>7.69980455984098E-09</v>
+        <v>7.699804559841046E-09</v>
       </c>
       <c r="K55">
-        <v>9.52131873691075E-05</v>
+        <v>9.521318736910691E-05</v>
       </c>
       <c r="L55">
-        <v>0.1545209768651737</v>
+        <v>0.1545209768651731</v>
       </c>
       <c r="M55">
-        <v>1121.828752919064</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1545131102740063</v>
+      </c>
+      <c r="N55">
+        <v>1121.828752919061</v>
+      </c>
+      <c r="O55">
+        <v>7.866591166813285E-06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>136.8558618353585</v>
+        <v>136.8558618353588</v>
       </c>
       <c r="B56">
-        <v>556845.8872869796</v>
+        <v>556845.8872869866</v>
       </c>
       <c r="C56">
-        <v>550.264620556208</v>
+        <v>550.2646205562141</v>
       </c>
       <c r="D56">
-        <v>23047.22987896037</v>
+        <v>23047.22987896034</v>
       </c>
       <c r="E56">
-        <v>7394.988790335643</v>
+        <v>7394.988790335639</v>
       </c>
       <c r="F56">
-        <v>6407.189681841622</v>
+        <v>6407.189681841619</v>
       </c>
       <c r="G56">
-        <v>6.653814796954578</v>
+        <v>6.653814796954524</v>
       </c>
       <c r="H56">
-        <v>28.60693337676815</v>
+        <v>28.60693337676817</v>
       </c>
       <c r="I56">
-        <v>4.317328589912267E-09</v>
+        <v>4.317328589912303E-09</v>
       </c>
       <c r="J56">
-        <v>7.988297008835343E-09</v>
+        <v>7.988297008835406E-09</v>
       </c>
       <c r="K56">
-        <v>9.266093406835579E-05</v>
+        <v>9.266093406835524E-05</v>
       </c>
       <c r="L56">
-        <v>0.152034359134835</v>
+        <v>0.1520343591348345</v>
       </c>
       <c r="M56">
-        <v>1107.102947022436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1520261525886889</v>
+      </c>
+      <c r="N56">
+        <v>1107.102947022433</v>
+      </c>
+      <c r="O56">
+        <v>8.206546145549103E-06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>138.1878570769165</v>
+        <v>138.1878570769168</v>
       </c>
       <c r="B57">
-        <v>598511.4857321503</v>
+        <v>598511.4857321633</v>
       </c>
       <c r="C57">
-        <v>589.5017070078939</v>
+        <v>589.5017070079067</v>
       </c>
       <c r="D57">
-        <v>22906.50190687548</v>
+        <v>22906.50190687544</v>
       </c>
       <c r="E57">
-        <v>7333.118999828699</v>
+        <v>7333.118999828676</v>
       </c>
       <c r="F57">
-        <v>6343.963734536602</v>
+        <v>6343.963734536575</v>
       </c>
       <c r="G57">
-        <v>6.603400881287483</v>
+        <v>6.603400881287492</v>
       </c>
       <c r="H57">
-        <v>28.97416451378068</v>
+        <v>28.97416451378084</v>
       </c>
       <c r="I57">
-        <v>4.495712672134737E-09</v>
+        <v>4.495712672134799E-09</v>
       </c>
       <c r="J57">
-        <v>8.283667399526356E-09</v>
+        <v>8.283667399526442E-09</v>
       </c>
       <c r="K57">
-        <v>9.018870645227714E-05</v>
+        <v>9.018870645227641E-05</v>
       </c>
       <c r="L57">
-        <v>0.1495849947858741</v>
+        <v>0.1495849947858733</v>
       </c>
       <c r="M57">
-        <v>1092.332507379143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1495764293677891</v>
+      </c>
+      <c r="N57">
+        <v>1092.332507379138</v>
+      </c>
+      <c r="O57">
+        <v>8.565418084179556E-06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>139.5198523184744</v>
+        <v>139.5198523184747</v>
       </c>
       <c r="B58">
-        <v>642406.8687294311</v>
+        <v>642406.8687294411</v>
       </c>
       <c r="C58">
-        <v>630.8718387522359</v>
+        <v>630.8718387522451</v>
       </c>
       <c r="D58">
-        <v>22764.19195048451</v>
+        <v>22764.19195048448</v>
       </c>
       <c r="E58">
-        <v>7269.747772720768</v>
+        <v>7269.747772720745</v>
       </c>
       <c r="F58">
-        <v>6279.683564662846</v>
+        <v>6279.683564662821</v>
       </c>
       <c r="G58">
-        <v>6.554100150287674</v>
+        <v>6.554100150287726</v>
       </c>
       <c r="H58">
-        <v>29.37369443976215</v>
+        <v>29.37369443976233</v>
       </c>
       <c r="I58">
-        <v>4.686213112249664E-09</v>
+        <v>4.686213112249723E-09</v>
       </c>
       <c r="J58">
-        <v>8.586070908368486E-09</v>
+        <v>8.586070908368567E-09</v>
       </c>
       <c r="K58">
-        <v>8.779135135622166E-05</v>
+        <v>8.779135135622099E-05</v>
       </c>
       <c r="L58">
-        <v>0.1471778988192616</v>
+        <v>0.1471778988192609</v>
       </c>
       <c r="M58">
-        <v>1077.511728012366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.1471689538241436</v>
+      </c>
+      <c r="N58">
+        <v>1077.511728012361</v>
+      </c>
+      <c r="O58">
+        <v>8.944995117304984E-06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>140.8518475600324</v>
+        <v>140.8518475600327</v>
       </c>
       <c r="B59">
-        <v>688600.9168003253</v>
+        <v>688600.9168003377</v>
       </c>
       <c r="C59">
-        <v>674.4688311287352</v>
+        <v>674.4688311287474</v>
       </c>
       <c r="D59">
-        <v>22620.18797496439</v>
+        <v>22620.18797496435</v>
       </c>
       <c r="E59">
-        <v>7204.807303068736</v>
+        <v>7204.807303068726</v>
       </c>
       <c r="F59">
-        <v>6214.296265856397</v>
+        <v>6214.296265856384</v>
       </c>
       <c r="G59">
-        <v>6.505743710675245</v>
+        <v>6.505743710675221</v>
       </c>
       <c r="H59">
-        <v>29.8061595887799</v>
+        <v>29.80615958878006</v>
       </c>
       <c r="I59">
-        <v>4.889917056789017E-09</v>
+        <v>4.889917056789084E-09</v>
       </c>
       <c r="J59">
-        <v>8.895695805402124E-09</v>
+        <v>8.895695805402199E-09</v>
       </c>
       <c r="K59">
-        <v>8.546425403748788E-05</v>
+        <v>8.546425403748733E-05</v>
       </c>
       <c r="L59">
-        <v>0.1448153175688947</v>
+        <v>0.144815317568894</v>
       </c>
       <c r="M59">
-        <v>1062.63522024613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.1448059703267855</v>
+      </c>
+      <c r="N59">
+        <v>1062.635220246126</v>
+      </c>
+      <c r="O59">
+        <v>9.347242108511958E-06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>142.1838428015903</v>
+        <v>142.1838428015906</v>
       </c>
       <c r="B60">
-        <v>737162.9226838463</v>
+        <v>737162.9226838562</v>
       </c>
       <c r="C60">
-        <v>720.3920598766966</v>
+        <v>720.3920598767056</v>
       </c>
       <c r="D60">
-        <v>22474.37544626722</v>
+        <v>22474.37544626718</v>
       </c>
       <c r="E60">
-        <v>7138.227451494528</v>
+        <v>7138.227451494514</v>
       </c>
       <c r="F60">
-        <v>6147.747414831233</v>
+        <v>6147.747414831219</v>
       </c>
       <c r="G60">
-        <v>6.458192988735211</v>
+        <v>6.458192988735219</v>
       </c>
       <c r="H60">
-        <v>30.27237485385276</v>
+        <v>30.27237485385287</v>
       </c>
       <c r="I60">
-        <v>5.108033003417382E-09</v>
+        <v>5.108033003417429E-09</v>
       </c>
       <c r="J60">
-        <v>9.212765890534117E-09</v>
+        <v>9.212765890534194E-09</v>
       </c>
       <c r="K60">
-        <v>8.320327687642634E-05</v>
+        <v>8.320327687642578E-05</v>
       </c>
       <c r="L60">
-        <v>0.1424971841040663</v>
+        <v>0.1424971841040656</v>
       </c>
       <c r="M60">
-        <v>1047.697918490045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.1424874097934701</v>
+      </c>
+      <c r="N60">
+        <v>1047.697918490042</v>
+      </c>
+      <c r="O60">
+        <v>9.774310595571384E-06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>143.5158380431482</v>
+        <v>143.5158380431486</v>
       </c>
       <c r="B61">
-        <v>788162.6111693151</v>
+        <v>788162.6111693255</v>
       </c>
       <c r="C61">
-        <v>768.7471132258122</v>
+        <v>768.7471132258215</v>
       </c>
       <c r="D61">
-        <v>22326.63698110082</v>
+        <v>22326.63698110078</v>
       </c>
       <c r="E61">
-        <v>7069.935266247632</v>
+        <v>7069.935266247608</v>
       </c>
       <c r="F61">
-        <v>6079.980686978296</v>
+        <v>6079.980686978271</v>
       </c>
       <c r="G61">
-        <v>6.411336703299888</v>
+        <v>6.411336703299903</v>
       </c>
       <c r="H61">
-        <v>30.77333995087781</v>
+        <v>30.77333995087801</v>
       </c>
       <c r="I61">
-        <v>5.341907087958361E-09</v>
+        <v>5.341907087958433E-09</v>
       </c>
       <c r="J61">
-        <v>9.537542945949804E-09</v>
+        <v>9.537542945949892E-09</v>
       </c>
       <c r="K61">
-        <v>8.100470310385991E-05</v>
+        <v>8.10047031038593E-05</v>
       </c>
       <c r="L61">
-        <v>0.140221615040049</v>
+        <v>0.1402216150400484</v>
       </c>
       <c r="M61">
-        <v>1032.695082164941</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.1402113864910329</v>
+      </c>
+      <c r="N61">
+        <v>1032.695082164936</v>
+      </c>
+      <c r="O61">
+        <v>1.022854901546334E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>144.8478332847062</v>
+        <v>144.8478332847065</v>
       </c>
       <c r="B62">
-        <v>841670.1693302876</v>
+        <v>841670.1693303023</v>
       </c>
       <c r="C62">
-        <v>819.6465387896778</v>
+        <v>819.6465387896918</v>
       </c>
       <c r="D62">
-        <v>22176.85198984726</v>
+        <v>22176.85198984722</v>
       </c>
       <c r="E62">
-        <v>6999.854468752548</v>
+        <v>6999.854468752531</v>
       </c>
       <c r="F62">
-        <v>6010.937444582455</v>
+        <v>6010.937444582439</v>
       </c>
       <c r="G62">
-        <v>6.365088300168257</v>
+        <v>6.365088300168244</v>
       </c>
       <c r="H62">
-        <v>31.31024828138351</v>
+        <v>31.31024828138365</v>
       </c>
       <c r="I62">
-        <v>5.593041962413524E-09</v>
+        <v>5.593041962413583E-09</v>
       </c>
       <c r="J62">
-        <v>9.870329229992518E-09</v>
+        <v>9.870329229992599E-09</v>
       </c>
       <c r="K62">
-        <v>7.886518509590009E-05</v>
+        <v>7.886518509589958E-05</v>
       </c>
       <c r="L62">
-        <v>0.1379853908415135</v>
+        <v>0.137985390841513</v>
       </c>
       <c r="M62">
-        <v>1017.622294127479</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.1379746783282527</v>
+      </c>
+      <c r="N62">
+        <v>1017.622294127476</v>
+      </c>
+      <c r="O62">
+        <v>1.071251326030552E-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>146.1798285262641</v>
+        <v>146.1798285262645</v>
       </c>
       <c r="B63">
-        <v>897756.2883883863</v>
+        <v>897756.2883883937</v>
       </c>
       <c r="C63">
-        <v>873.2107001295714</v>
+        <v>873.2107001295768</v>
       </c>
       <c r="D63">
-        <v>22024.89631073622</v>
+        <v>22024.89631073618</v>
       </c>
       <c r="E63">
-        <v>6927.904898426325</v>
+        <v>6927.904898426311</v>
       </c>
       <c r="F63">
-        <v>5940.556292714661</v>
+        <v>5940.556292714647</v>
       </c>
       <c r="G63">
-        <v>6.319383801216879</v>
+        <v>6.319383801216854</v>
       </c>
       <c r="H63">
-        <v>31.88449858518704</v>
+        <v>31.88449858518716</v>
       </c>
       <c r="I63">
-        <v>5.863118751566972E-09</v>
+        <v>5.863118751567027E-09</v>
       </c>
       <c r="J63">
-        <v>1.021147004042255E-08</v>
+        <v>1.021147004042263E-08</v>
       </c>
       <c r="K63">
-        <v>7.678169688923062E-05</v>
+        <v>7.678169688923014E-05</v>
       </c>
       <c r="L63">
-        <v>0.1357843833946328</v>
+        <v>0.1357843833946323</v>
       </c>
       <c r="M63">
-        <v>1002.475455831579</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.1357731544170152</v>
+      </c>
+      <c r="N63">
+        <v>1002.475455831576</v>
+      </c>
+      <c r="O63">
+        <v>1.122897761708639E-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>147.5118237678221</v>
+        <v>147.5118237678224</v>
       </c>
       <c r="B64">
-        <v>956492.2185637199</v>
+        <v>956492.2185637323</v>
       </c>
       <c r="C64">
-        <v>929.5687602188012</v>
+        <v>929.5687602188124</v>
       </c>
       <c r="D64">
-        <v>21870.64183334541</v>
+        <v>21870.64183334537</v>
       </c>
       <c r="E64">
-        <v>6854.001911229567</v>
+        <v>6854.001911229554</v>
       </c>
       <c r="F64">
-        <v>5868.772597458898</v>
+        <v>5868.772597458884</v>
       </c>
       <c r="G64">
-        <v>6.274180026647172</v>
+        <v>6.274180026647134</v>
       </c>
       <c r="H64">
-        <v>32.49770977058047</v>
+        <v>32.49770977058066</v>
       </c>
       <c r="I64">
-        <v>6.154022684099225E-09</v>
+        <v>6.1540226840993E-09</v>
       </c>
       <c r="J64">
-        <v>1.056135637761742E-08</v>
+        <v>1.056135637761752E-08</v>
       </c>
       <c r="K64">
-        <v>7.47514906545509E-05</v>
+        <v>7.475149065455041E-05</v>
       </c>
       <c r="L64">
-        <v>0.1336139138327172</v>
+        <v>0.1336139138327166</v>
       </c>
       <c r="M64">
-        <v>987.2507793498825</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.1336021328865722</v>
+      </c>
+      <c r="N64">
+        <v>987.2507793498794</v>
+      </c>
+      <c r="O64">
+        <v>1.178094614444902E-05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>148.84381900938</v>
+        <v>148.8438190093804</v>
       </c>
       <c r="B65">
-        <v>1017949.838401264</v>
+        <v>1017949.838401289</v>
       </c>
       <c r="C65">
-        <v>988.8598117699089</v>
+        <v>988.8598117699348</v>
       </c>
       <c r="D65">
-        <v>21713.95610914468</v>
+        <v>21713.95610914464</v>
       </c>
       <c r="E65">
-        <v>6778.055726040651</v>
+        <v>6778.05572604063</v>
       </c>
       <c r="F65">
-        <v>5795.51796065673</v>
+        <v>5795.51796065671</v>
       </c>
       <c r="G65">
-        <v>6.229453153656708</v>
+        <v>6.229453153656711</v>
       </c>
       <c r="H65">
-        <v>33.15173943021531</v>
+        <v>33.15173943021559</v>
       </c>
       <c r="I65">
-        <v>6.467873130656363E-09</v>
+        <v>6.467873130656463E-09</v>
       </c>
       <c r="J65">
-        <v>1.092042774119117E-08</v>
+        <v>1.092042774119126E-08</v>
       </c>
       <c r="K65">
-        <v>7.277205692864531E-05</v>
+        <v>7.277205692864481E-05</v>
       </c>
       <c r="L65">
-        <v>0.1314690378805999</v>
+        <v>0.1314690378805994</v>
       </c>
       <c r="M65">
-        <v>971.9447762693924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.1314566662160607</v>
+      </c>
+      <c r="N65">
+        <v>971.9447762693877</v>
+      </c>
+      <c r="O65">
+        <v>1.237166453868527E-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>150.175814250938</v>
+        <v>150.1758142509383</v>
       </c>
       <c r="B66">
-        <v>1082201.74019261</v>
+        <v>1082201.740192645</v>
       </c>
       <c r="C66">
-        <v>1051.234177534157</v>
+        <v>1051.234177534195</v>
       </c>
       <c r="D66">
-        <v>21554.70194629859</v>
+        <v>21554.70194629854</v>
       </c>
       <c r="E66">
-        <v>6699.970712526488</v>
+        <v>6699.970712526442</v>
       </c>
       <c r="F66">
-        <v>5720.719644793285</v>
+        <v>5720.719644793242</v>
       </c>
       <c r="G66">
-        <v>6.18519757926003</v>
+        <v>6.185197579260031</v>
       </c>
       <c r="H66">
-        <v>33.84870670264792</v>
+        <v>33.84870670264817</v>
       </c>
       <c r="I66">
-        <v>6.807058954475579E-09</v>
+        <v>6.807058954475696E-09</v>
       </c>
       <c r="J66">
-        <v>1.128917509691321E-08</v>
+        <v>1.128917509691331E-08</v>
       </c>
       <c r="K66">
-        <v>7.084108845096183E-05</v>
+        <v>7.084108845096123E-05</v>
       </c>
       <c r="L66">
-        <v>0.1293447649776096</v>
+        <v>0.1293447649776089</v>
       </c>
       <c r="M66">
-        <v>956.5542433718034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.1293317603450704</v>
+      </c>
+      <c r="N66">
+        <v>956.5542433717982</v>
+      </c>
+      <c r="O66">
+        <v>1.300463253843958E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>151.5078094924959</v>
+        <v>151.5078094924963</v>
       </c>
       <c r="B67">
-        <v>1149321.333237373</v>
+        <v>1149321.333237389</v>
       </c>
       <c r="C67">
-        <v>1116.854907297867</v>
+        <v>1116.854907297882</v>
       </c>
       <c r="D67">
-        <v>21392.73698524391</v>
+        <v>21392.73698524387</v>
       </c>
       <c r="E67">
-        <v>6619.644613730688</v>
+        <v>6619.644613730659</v>
       </c>
       <c r="F67">
-        <v>5644.299940998905</v>
+        <v>5644.299940998876</v>
       </c>
       <c r="G67">
-        <v>6.141425059069256</v>
+        <v>6.141425059069229</v>
       </c>
       <c r="H67">
-        <v>34.59102033220915</v>
+        <v>34.59102033220925</v>
       </c>
       <c r="I67">
-        <v>7.174280301241323E-09</v>
+        <v>7.174280301241411E-09</v>
       </c>
       <c r="J67">
-        <v>1.166814405496954E-08</v>
+        <v>1.166814405496963E-08</v>
       </c>
       <c r="K67">
-        <v>6.895644748225585E-05</v>
+        <v>6.895644748225537E-05</v>
       </c>
       <c r="L67">
-        <v>0.1272362219733425</v>
+        <v>0.127236221973342</v>
       </c>
       <c r="M67">
-        <v>941.0762449111035</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.1272225383564287</v>
+      </c>
+      <c r="N67">
+        <v>941.0762449110997</v>
+      </c>
+      <c r="O67">
+        <v>1.368361691326799E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>152.8398047340539</v>
+        <v>152.8398047340542</v>
       </c>
       <c r="B68">
-        <v>1219382.966796084</v>
+        <v>1219382.966796103</v>
       </c>
       <c r="C68">
-        <v>1185.899502419619</v>
+        <v>1185.899502419638</v>
       </c>
       <c r="D68">
-        <v>21227.9132506024</v>
+        <v>21227.91325060236</v>
       </c>
       <c r="E68">
-        <v>6536.967696148748</v>
+        <v>6536.967696148729</v>
       </c>
       <c r="F68">
-        <v>5566.175472414073</v>
+        <v>5566.175472414058</v>
       </c>
       <c r="G68">
-        <v>6.09816409752437</v>
+        <v>6.098164097524337</v>
       </c>
       <c r="H68">
-        <v>35.3814130260125</v>
+        <v>35.38141302601259</v>
       </c>
       <c r="I68">
-        <v>7.572598239024004E-09</v>
+        <v>7.572598239024084E-09</v>
       </c>
       <c r="J68">
-        <v>1.205793830586075E-08</v>
+        <v>1.205793830586085E-08</v>
       </c>
       <c r="K68">
-        <v>6.711613650366754E-05</v>
+        <v>6.711613650366712E-05</v>
       </c>
       <c r="L68">
-        <v>0.1251387735145647</v>
+        <v>0.1251387735145641</v>
       </c>
       <c r="M68">
-        <v>925.5080912100733</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.1251243608494893</v>
+      </c>
+      <c r="N68">
+        <v>925.5080912100706</v>
+      </c>
+      <c r="O68">
+        <v>1.441266507484324E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>154.1717999756118</v>
+        <v>154.1717999756122</v>
       </c>
       <c r="B69">
-        <v>1292462.07466502</v>
+        <v>1292462.07466504</v>
       </c>
       <c r="C69">
-        <v>1258.561903396574</v>
+        <v>1258.561903396594</v>
       </c>
       <c r="D69">
-        <v>21060.07667369178</v>
+        <v>21060.07667369173</v>
       </c>
       <c r="E69">
-        <v>6451.821819657529</v>
+        <v>6451.8218196575</v>
       </c>
       <c r="F69">
-        <v>5486.25642437608</v>
+        <v>5486.256424376052</v>
       </c>
       <c r="G69">
-        <v>6.055459568404273</v>
+        <v>6.055459568404284</v>
       </c>
       <c r="H69">
-        <v>36.22298352332493</v>
+        <v>36.22298352332528</v>
       </c>
       <c r="I69">
-        <v>8.00549402702815E-09</v>
+        <v>8.005494027028293E-09</v>
       </c>
       <c r="J69">
-        <v>1.245922336699911E-08</v>
+        <v>1.245922336699924E-08</v>
       </c>
       <c r="K69">
-        <v>6.531827220681608E-05</v>
+        <v>6.531827220681553E-05</v>
       </c>
       <c r="L69">
-        <v>0.123048110559254</v>
+        <v>0.1230481105592534</v>
       </c>
       <c r="M69">
-        <v>909.8473132147896</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.1230329144399119</v>
+      </c>
+      <c r="N69">
+        <v>909.8473132147845</v>
+      </c>
+      <c r="O69">
+        <v>1.51961193414802E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>155.5037952171698</v>
+        <v>155.5037952171701</v>
       </c>
       <c r="B70">
-        <v>1368635.343329541</v>
+        <v>1368635.343329562</v>
       </c>
       <c r="C70">
-        <v>1335.054781086938</v>
+        <v>1335.054781086959</v>
       </c>
       <c r="D70">
-        <v>20889.06657815394</v>
+        <v>20889.06657815388</v>
       </c>
       <c r="E70">
-        <v>6364.079419418216</v>
+        <v>6364.079419418188</v>
       </c>
       <c r="F70">
-        <v>5404.445692090948</v>
+        <v>5404.445692090917</v>
       </c>
       <c r="G70">
-        <v>6.01337254741488</v>
+        <v>6.013372547414884</v>
       </c>
       <c r="H70">
-        <v>37.11924820141604</v>
+        <v>37.11924820141639</v>
       </c>
       <c r="I70">
-        <v>8.476940271566973E-09</v>
+        <v>8.476940271567133E-09</v>
       </c>
       <c r="J70">
-        <v>1.287273070189439E-08</v>
+        <v>1.287273070189451E-08</v>
       </c>
       <c r="K70">
-        <v>6.356106269081441E-05</v>
+        <v>6.356106269081391E-05</v>
       </c>
       <c r="L70">
-        <v>0.120960316710996</v>
+        <v>0.1209603167109953</v>
       </c>
       <c r="M70">
-        <v>894.0916325751867</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.1209442780791189</v>
+      </c>
+      <c r="N70">
+        <v>894.0916325751814</v>
+      </c>
+      <c r="O70">
+        <v>1.603863187640872E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>156.8357904587277</v>
+        <v>156.8357904587281</v>
       </c>
       <c r="B71">
-        <v>1447980.905597692</v>
+        <v>1447980.905597731</v>
       </c>
       <c r="C71">
-        <v>1415.612177744263</v>
+        <v>1415.612177744308</v>
       </c>
       <c r="D71">
-        <v>20714.71511889188</v>
+        <v>20714.71511889184</v>
       </c>
       <c r="E71">
-        <v>6273.602391931986</v>
+        <v>6273.602391931948</v>
       </c>
       <c r="F71">
-        <v>5320.637935741019</v>
+        <v>5320.637935740989</v>
       </c>
       <c r="G71">
-        <v>5.971980341323854</v>
+        <v>5.971980341323796</v>
       </c>
       <c r="H71">
-        <v>38.07420457334425</v>
+        <v>38.07420457334435</v>
       </c>
       <c r="I71">
-        <v>8.991486857877017E-09</v>
+        <v>8.991486857877122E-09</v>
       </c>
       <c r="J71">
-        <v>1.329926228541964E-08</v>
+        <v>1.329926228541975E-08</v>
       </c>
       <c r="K71">
-        <v>6.184278778173531E-05</v>
+        <v>6.18427877817349E-05</v>
       </c>
       <c r="L71">
-        <v>0.1188719199097791</v>
+        <v>0.1188719199097786</v>
       </c>
       <c r="M71">
-        <v>878.2389267635872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.1188549747294705</v>
+      </c>
+      <c r="N71">
+        <v>878.2389267635845</v>
+      </c>
+      <c r="O71">
+        <v>1.694518030810199E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>158.1677857002857</v>
+        <v>158.1677857002861</v>
       </c>
       <c r="B72">
-        <v>1530578.561428005</v>
+        <v>1530578.561428024</v>
       </c>
       <c r="C72">
-        <v>1500.492549681653</v>
+        <v>1500.492549681671</v>
       </c>
       <c r="D72">
-        <v>20536.84666141607</v>
+        <v>20536.84666141601</v>
       </c>
       <c r="E72">
-        <v>6180.240878060269</v>
+        <v>6180.240878060247</v>
       </c>
       <c r="F72">
-        <v>5234.718532515419</v>
+        <v>5234.718532515398</v>
       </c>
       <c r="G72">
-        <v>5.931376700494998</v>
+        <v>5.931376700495017</v>
       </c>
       <c r="H72">
-        <v>39.09240972745453</v>
+        <v>39.09240972745481</v>
       </c>
       <c r="I72">
-        <v>9.554365380795035E-09</v>
+        <v>9.554365380795215E-09</v>
       </c>
       <c r="J72">
-        <v>1.373969570397504E-08</v>
+        <v>1.373969570397518E-08</v>
       </c>
       <c r="K72">
-        <v>6.01617823846693E-05</v>
+        <v>6.01617823846688E-05</v>
       </c>
       <c r="L72">
-        <v>0.1167799348335379</v>
+        <v>0.1167799348335372</v>
       </c>
       <c r="M72">
-        <v>862.2871887065547</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.1167620137495102</v>
+      </c>
+      <c r="N72">
+        <v>862.287188706549</v>
+      </c>
+      <c r="O72">
+        <v>1.792108402701719E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>159.4997809418436</v>
+        <v>159.499780941844</v>
       </c>
       <c r="B73">
-        <v>1616510.027279885</v>
+        <v>1616510.027279894</v>
       </c>
       <c r="C73">
-        <v>1589.982268701486</v>
+        <v>1589.98226870149</v>
       </c>
       <c r="D73">
-        <v>20355.27708461945</v>
+        <v>20355.2770846194</v>
       </c>
       <c r="E73">
-        <v>6083.831937424499</v>
+        <v>6083.831937424483</v>
       </c>
       <c r="F73">
-        <v>5146.562415107861</v>
+        <v>5146.562415107845</v>
       </c>
       <c r="G73">
-        <v>5.891672203842934</v>
+        <v>5.891672203842909</v>
       </c>
       <c r="H73">
-        <v>40.17907767105439</v>
+        <v>40.17907767105459</v>
       </c>
       <c r="I73">
-        <v>1.017161691109365E-08</v>
+        <v>1.01716169110938E-08</v>
       </c>
       <c r="J73">
-        <v>1.419498989966915E-08</v>
+        <v>1.419498989966927E-08</v>
       </c>
       <c r="K73">
-        <v>5.851642276831773E-05</v>
+        <v>5.851642276831732E-05</v>
       </c>
       <c r="L73">
-        <v>0.1146818993632748</v>
+        <v>0.1146818993632743</v>
       </c>
       <c r="M73">
-        <v>846.2344803943803</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.1146629273421363</v>
+      </c>
+      <c r="N73">
+        <v>846.2344803943765</v>
+      </c>
+      <c r="O73">
+        <v>1.897202113798038E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>160.8317761834015</v>
+        <v>160.831776183402</v>
       </c>
       <c r="B74">
-        <v>1705859.214621298</v>
+        <v>1705859.214621333</v>
       </c>
       <c r="C74">
-        <v>1684.399643521373</v>
+        <v>1684.399643521412</v>
       </c>
       <c r="D74">
-        <v>20169.81298462085</v>
+        <v>20169.81298462079</v>
       </c>
       <c r="E74">
-        <v>5984.198111793666</v>
+        <v>5984.198111793628</v>
       </c>
       <c r="F74">
-        <v>5056.032787244569</v>
+        <v>5056.032787244536</v>
       </c>
       <c r="G74">
-        <v>5.852994807281609</v>
+        <v>5.852994807281595</v>
       </c>
       <c r="H74">
-        <v>41.34020074862654</v>
+        <v>41.34020074862699</v>
       </c>
       <c r="I74">
-        <v>1.085024943369077E-08</v>
+        <v>1.085024943369102E-08</v>
       </c>
       <c r="J74">
-        <v>1.46661916946201E-08</v>
+        <v>1.466619169462027E-08</v>
       </c>
       <c r="K74">
-        <v>5.690511566663874E-05</v>
+        <v>5.690511566663821E-05</v>
       </c>
       <c r="L74">
-        <v>0.1125759067309072</v>
+        <v>0.1125759067309065</v>
       </c>
       <c r="M74">
-        <v>830.0788799518633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.1125558026848749</v>
+      </c>
+      <c r="N74">
+        <v>830.0788799518577</v>
+      </c>
+      <c r="O74">
+        <v>2.010404603158152E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>162.1637714249595</v>
+        <v>162.1637714249599</v>
       </c>
       <c r="B75">
-        <v>1798712.537081314</v>
+        <v>1798712.537081338</v>
       </c>
       <c r="C75">
-        <v>1784.099523830106</v>
+        <v>1784.099523830131</v>
       </c>
       <c r="D75">
-        <v>19980.250750241</v>
+        <v>19980.25075024094</v>
       </c>
       <c r="E75">
-        <v>5881.14588076848</v>
+        <v>5881.145880768458</v>
       </c>
       <c r="F75">
-        <v>4962.979709469516</v>
+        <v>4962.979709469499</v>
       </c>
       <c r="G75">
-        <v>5.815490548810891</v>
+        <v>5.815490548810866</v>
       </c>
       <c r="H75">
-        <v>42.58270191563461</v>
+        <v>42.58270191563498</v>
       </c>
       <c r="I75">
-        <v>1.15984333307614E-08</v>
+        <v>1.159843333076161E-08</v>
       </c>
       <c r="J75">
-        <v>1.515444326742414E-08</v>
+        <v>1.515444326742429E-08</v>
       </c>
       <c r="K75">
-        <v>5.532629006045933E-05</v>
+        <v>5.532629006045888E-05</v>
       </c>
       <c r="L75">
-        <v>0.110460633526816</v>
+        <v>0.1104606335268154</v>
       </c>
       <c r="M75">
-        <v>813.8184217093921</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.1104393099192926</v>
+      </c>
+      <c r="N75">
+        <v>813.8184217093882</v>
+      </c>
+      <c r="O75">
+        <v>2.132360752282736E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>163.4957666665175</v>
+        <v>163.4957666665179</v>
       </c>
       <c r="B76">
-        <v>1895159.243907332</v>
+        <v>1895159.243907379</v>
       </c>
       <c r="C76">
-        <v>1889.478545882602</v>
+        <v>1889.478545882661</v>
       </c>
       <c r="D76">
-        <v>19786.37547136081</v>
+        <v>19786.37547136075</v>
       </c>
       <c r="E76">
-        <v>5774.46402263475</v>
+        <v>5774.464022634707</v>
       </c>
       <c r="F76">
-        <v>4867.238553776862</v>
+        <v>4867.238553776825</v>
       </c>
       <c r="G76">
-        <v>5.779324405655294</v>
+        <v>5.77932440565526</v>
       </c>
       <c r="H76">
-        <v>43.9146268156781</v>
+        <v>43.91462681567867</v>
       </c>
       <c r="I76">
-        <v>1.242574607626874E-08</v>
+        <v>1.242574607626907E-08</v>
       </c>
       <c r="J76">
-        <v>1.566099080188502E-08</v>
+        <v>1.566099080188519E-08</v>
       </c>
       <c r="K76">
-        <v>5.377839147247796E-05</v>
+        <v>5.37783914724774E-05</v>
       </c>
       <c r="L76">
-        <v>0.1083353625887824</v>
+        <v>0.1083353625887816</v>
       </c>
       <c r="M76">
-        <v>797.4510289067563</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.1083127250212891</v>
+      </c>
+      <c r="N76">
+        <v>797.4510289067504</v>
+      </c>
+      <c r="O76">
+        <v>2.263756749248263E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>164.8277619080754</v>
+        <v>164.8277619080758</v>
       </c>
       <c r="B77">
-        <v>1995291.774567162</v>
+        <v>1995291.774567186</v>
       </c>
       <c r="C77">
-        <v>2000.981065824549</v>
+        <v>2000.981065824572</v>
       </c>
       <c r="D77">
-        <v>19587.95962911016</v>
+        <v>19587.95962911009</v>
       </c>
       <c r="E77">
-        <v>5663.921908618245</v>
+        <v>5663.921908618207</v>
       </c>
       <c r="F77">
-        <v>4768.628335303165</v>
+        <v>4768.628335303131</v>
       </c>
       <c r="G77">
-        <v>5.744681301683509</v>
+        <v>5.744681301683562</v>
       </c>
       <c r="H77">
-        <v>45.34538755303789</v>
+        <v>45.34538755303841</v>
       </c>
       <c r="I77">
-        <v>1.334348117940324E-08</v>
+        <v>1.33434811794036E-08</v>
       </c>
       <c r="J77">
-        <v>1.618719459258041E-08</v>
+        <v>1.61871945925806E-08</v>
       </c>
       <c r="K77">
-        <v>5.22598785691711E-05</v>
+        <v>5.225987856917053E-05</v>
       </c>
       <c r="L77">
-        <v>0.1061999989138009</v>
+        <v>0.1061999989138001</v>
       </c>
       <c r="M77">
-        <v>780.9744387894359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.1061759456938411</v>
+      </c>
+      <c r="N77">
+        <v>780.9744387894287</v>
+      </c>
+      <c r="O77">
+        <v>2.405321995898726E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>166.1597571496333</v>
+        <v>166.1597571496337</v>
       </c>
       <c r="B78">
-        <v>2099206.125068999</v>
+        <v>2099206.125069043</v>
       </c>
       <c r="C78">
-        <v>2119.105799201621</v>
+        <v>2119.105799201674</v>
       </c>
       <c r="D78">
-        <v>19384.76150049797</v>
+        <v>19384.76150049789</v>
       </c>
       <c r="E78">
-        <v>5549.267782625631</v>
+        <v>5549.26778262558</v>
       </c>
       <c r="F78">
-        <v>4666.949945450844</v>
+        <v>4666.949945450797</v>
       </c>
       <c r="G78">
-        <v>5.711767267120409</v>
+        <v>5.711767267120397</v>
       </c>
       <c r="H78">
-        <v>46.88607410013368</v>
+        <v>46.88607410013444</v>
       </c>
       <c r="I78">
-        <v>1.436504183866618E-08</v>
+        <v>1.436504183866663E-08</v>
       </c>
       <c r="J78">
-        <v>1.673454097884088E-08</v>
+        <v>1.673454097884108E-08</v>
       </c>
       <c r="K78">
-        <v>5.076922180929243E-05</v>
+        <v>5.076922180929187E-05</v>
       </c>
       <c r="L78">
-        <v>0.1040550761200678</v>
+        <v>0.104055076120067</v>
       </c>
       <c r="M78">
-        <v>764.3861200046856</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.1040294978095568</v>
+      </c>
+      <c r="N78">
+        <v>764.3861200046789</v>
+      </c>
+      <c r="O78">
+        <v>2.557831051014563E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>167.4917523911913</v>
+        <v>167.4917523911917</v>
       </c>
       <c r="B79">
-        <v>2207002.21023559</v>
+        <v>2207002.210235642</v>
       </c>
       <c r="C79">
-        <v>2244.413133289781</v>
+        <v>2244.413133289851</v>
       </c>
       <c r="D79">
-        <v>19176.52318818912</v>
+        <v>19176.52318818905</v>
       </c>
       <c r="E79">
-        <v>5430.227114469689</v>
+        <v>5430.22711446963</v>
       </c>
       <c r="F79">
-        <v>4561.984336678248</v>
+        <v>4561.984336678199</v>
       </c>
       <c r="G79">
-        <v>5.68081075801319</v>
+        <v>5.680810758013132</v>
       </c>
       <c r="H79">
-        <v>48.54985491771625</v>
+        <v>48.54985491771693</v>
       </c>
       <c r="I79">
-        <v>1.550644746242107E-08</v>
+        <v>1.550644746242152E-08</v>
       </c>
       <c r="J79">
-        <v>1.730465659694281E-08</v>
+        <v>1.7304656596943E-08</v>
       </c>
       <c r="K79">
-        <v>4.930490380599448E-05</v>
+        <v>4.930490380599398E-05</v>
       </c>
       <c r="L79">
-        <v>0.1019017506332901</v>
+        <v>0.1019017506332894</v>
       </c>
       <c r="M79">
-        <v>747.6831823376459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.1018745295772495</v>
+      </c>
+      <c r="N79">
+        <v>747.6831823376405</v>
+      </c>
+      <c r="O79">
+        <v>2.722105603993281E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>168.8237476327492</v>
+        <v>168.8237476327497</v>
       </c>
       <c r="B80">
-        <v>2318784.196907464</v>
+        <v>2318784.196907502</v>
       </c>
       <c r="C80">
-        <v>2377.532989803713</v>
+        <v>2377.532989803758</v>
       </c>
       <c r="D80">
-        <v>18962.96815639489</v>
+        <v>18962.96815639483</v>
       </c>
       <c r="E80">
-        <v>5306.501166956533</v>
+        <v>5306.501166956496</v>
       </c>
       <c r="F80">
-        <v>4453.490748964228</v>
+        <v>4453.490748964196</v>
       </c>
       <c r="G80">
-        <v>5.652064151114751</v>
+        <v>5.652064151114765</v>
       </c>
       <c r="H80">
-        <v>50.35249633805264</v>
+        <v>50.35249633805335</v>
       </c>
       <c r="I80">
-        <v>1.678699227257727E-08</v>
+        <v>1.678699227257768E-08</v>
       </c>
       <c r="J80">
-        <v>1.789932560244641E-08</v>
+        <v>1.78993256024466E-08</v>
       </c>
       <c r="K80">
-        <v>4.786542097150243E-05</v>
+        <v>4.786542097150204E-05</v>
       </c>
       <c r="L80">
-        <v>0.0997417806746821</v>
+        <v>0.09974178067468151</v>
       </c>
       <c r="M80">
-        <v>730.8622788809776</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.09971279050990668</v>
+      </c>
+      <c r="N80">
+        <v>730.8622788809727</v>
+      </c>
+      <c r="O80">
+        <v>2.899016477482714E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>170.1557428743072</v>
+        <v>170.1557428743076</v>
       </c>
       <c r="B81">
-        <v>2434660.769760263</v>
+        <v>2434660.769760312</v>
       </c>
       <c r="C81">
-        <v>2519.172971092274</v>
+        <v>2519.172971092341</v>
       </c>
       <c r="D81">
-        <v>18743.79811281779</v>
+        <v>18743.7981128177</v>
       </c>
       <c r="E81">
-        <v>5177.765990743769</v>
+        <v>5177.7659907437</v>
       </c>
       <c r="F81">
-        <v>4341.205126690835</v>
+        <v>4341.205126690773</v>
       </c>
       <c r="G81">
-        <v>5.625805442427843</v>
+        <v>5.625805442427877</v>
       </c>
       <c r="H81">
-        <v>52.31304172372794</v>
+        <v>52.313041723729</v>
       </c>
       <c r="I81">
-        <v>1.823011134577021E-08</v>
+        <v>1.823011134577088E-08</v>
       </c>
       <c r="J81">
-        <v>1.852051073953984E-08</v>
+        <v>1.852051073954007E-08</v>
       </c>
       <c r="K81">
-        <v>4.644928588045253E-05</v>
+        <v>4.644928588045202E-05</v>
       </c>
       <c r="L81">
-        <v>0.09757748727502256</v>
+        <v>0.09757748727502175</v>
       </c>
       <c r="M81">
-        <v>713.919500588093</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.09754659241837363</v>
+      </c>
+      <c r="N81">
+        <v>713.9195005880856</v>
+      </c>
+      <c r="O81">
+        <v>3.089485664812065E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>171.4877381158651</v>
+        <v>171.4877381158656</v>
       </c>
       <c r="B82">
-        <v>2554745.272750515</v>
+        <v>2554745.272750592</v>
       </c>
       <c r="C82">
-        <v>2670.126300330519</v>
+        <v>2670.126300330635</v>
       </c>
       <c r="D82">
-        <v>18518.68901892931</v>
+        <v>18518.68901892924</v>
       </c>
       <c r="E82">
-        <v>5043.672158868862</v>
+        <v>5043.672158868787</v>
       </c>
       <c r="F82">
-        <v>4224.838957379763</v>
+        <v>4224.838957379706</v>
       </c>
       <c r="G82">
-        <v>5.60234019719608</v>
+        <v>5.602340197196105</v>
       </c>
       <c r="H82">
-        <v>54.45470820040648</v>
+        <v>54.45470820040712</v>
       </c>
       <c r="I82">
-        <v>1.98645333800139E-08</v>
+        <v>1.986453338001443E-08</v>
       </c>
       <c r="J82">
-        <v>1.917037945071865E-08</v>
+        <v>1.917037945071887E-08</v>
       </c>
       <c r="K82">
-        <v>4.505502960738144E-05</v>
+        <v>4.505502960738102E-05</v>
       </c>
       <c r="L82">
-        <v>0.09541169489940469</v>
+        <v>0.09541169489940403</v>
       </c>
       <c r="M82">
-        <v>696.8502626240791</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.09537875001519593</v>
+      </c>
+      <c r="N82">
+        <v>696.8502626240734</v>
+      </c>
+      <c r="O82">
+        <v>3.294488420810476E-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>172.8197333574231</v>
+        <v>172.8197333574235</v>
       </c>
       <c r="B83">
-        <v>2679155.643710277</v>
+        <v>2679155.643710323</v>
       </c>
       <c r="C83">
-        <v>2831.278741538175</v>
+        <v>2831.278741538241</v>
       </c>
       <c r="D83">
-        <v>18287.28592816812</v>
+        <v>18287.28592816806</v>
       </c>
       <c r="E83">
-        <v>4903.845673257108</v>
+        <v>4903.845673257063</v>
       </c>
       <c r="F83">
-        <v>4104.078872685132</v>
+        <v>4104.078872685095</v>
       </c>
       <c r="G83">
-        <v>5.582003829769929</v>
+        <v>5.582003829769952</v>
       </c>
       <c r="H83">
-        <v>56.806083842208</v>
+        <v>56.80608384220889</v>
       </c>
       <c r="I83">
-        <v>2.17258356216356E-08</v>
+        <v>2.172583562163621E-08</v>
       </c>
       <c r="J83">
-        <v>1.985133667272204E-08</v>
+        <v>1.985133667272224E-08</v>
       </c>
       <c r="K83">
-        <v>4.368120304652761E-05</v>
+        <v>4.368120304652724E-05</v>
       </c>
       <c r="L83">
-        <v>0.09324764978142798</v>
+        <v>0.09324764978142738</v>
       </c>
       <c r="M83">
-        <v>679.6491806852691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.09321249922697307</v>
+      </c>
+      <c r="N83">
+        <v>679.6491806852639</v>
+      </c>
+      <c r="O83">
+        <v>3.51505544543196E-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>174.151728598981</v>
+        <v>174.1517285989814</v>
       </c>
       <c r="B84">
-        <v>2808014.026181316</v>
+        <v>2808014.026181395</v>
       </c>
       <c r="C84">
-        <v>3003.61324445199</v>
+        <v>3003.61324445212</v>
       </c>
       <c r="D84">
-        <v>18049.19623065077</v>
+        <v>18049.19623065074</v>
       </c>
       <c r="E84">
-        <v>4757.890602668717</v>
+        <v>4757.890602668631</v>
       </c>
       <c r="F84">
-        <v>3978.587480939854</v>
+        <v>3978.587480939791</v>
       </c>
       <c r="G84">
-        <v>5.565164340002277</v>
+        <v>5.565164340002236</v>
       </c>
       <c r="H84">
-        <v>59.40274648776323</v>
+        <v>59.40274648776283</v>
       </c>
       <c r="I84">
-        <v>2.385857209325509E-08</v>
+        <v>2.385857209325508E-08</v>
       </c>
       <c r="J84">
-        <v>2.056606662372758E-08</v>
+        <v>2.05660666237277E-08</v>
       </c>
       <c r="K84">
-        <v>4.232637588042553E-05</v>
+        <v>4.232637588042538E-05</v>
       </c>
       <c r="L84">
-        <v>0.09108891463533093</v>
+        <v>0.09108891463533067</v>
       </c>
       <c r="M84">
-        <v>662.3099330232229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.09105139188300262</v>
+      </c>
+      <c r="N84">
+        <v>662.3099330232227</v>
+      </c>
+      <c r="O84">
+        <v>3.752275232803849E-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>175.4837238405389</v>
+        <v>175.4837238405394</v>
       </c>
       <c r="B85">
-        <v>2941445.901381529</v>
+        <v>2941445.90138159</v>
       </c>
       <c r="C85">
-        <v>3188.210524459088</v>
+        <v>3188.210524459182</v>
       </c>
       <c r="D85">
-        <v>17803.98070264579</v>
+        <v>17803.98070264569</v>
       </c>
       <c r="E85">
-        <v>4605.394100645615</v>
+        <v>4605.394100645543</v>
       </c>
       <c r="F85">
-        <v>3848.006022352082</v>
+        <v>3848.006022352022</v>
       </c>
       <c r="G85">
-        <v>5.552225709119596</v>
+        <v>5.552225709119588</v>
       </c>
       <c r="H85">
-        <v>62.28948524473982</v>
+        <v>62.28948524474094</v>
       </c>
       <c r="I85">
-        <v>2.631923405828193E-08</v>
+        <v>2.631923405828294E-08</v>
       </c>
       <c r="J85">
-        <v>2.131758686501525E-08</v>
+        <v>2.131758686501555E-08</v>
       </c>
       <c r="K85">
-        <v>4.09891313871978E-05</v>
+        <v>4.098913138719727E-05</v>
       </c>
       <c r="L85">
-        <v>0.08893923889519403</v>
+        <v>0.08893923889519319</v>
       </c>
       <c r="M85">
-        <v>644.8250995658008</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.08889916592808719</v>
+      </c>
+      <c r="N85">
+        <v>644.8250995657939</v>
+      </c>
+      <c r="O85">
+        <v>4.007296710600106E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>176.8157190820969</v>
+        <v>176.8157190820974</v>
       </c>
       <c r="B86">
-        <v>3079578.537541415</v>
+        <v>3079578.537541467</v>
       </c>
       <c r="C86">
-        <v>3386.243270221245</v>
+        <v>3386.243270221325</v>
       </c>
       <c r="D86">
-        <v>17551.14148603722</v>
+        <v>17551.14148603715</v>
       </c>
       <c r="E86">
-        <v>4445.934403608752</v>
+        <v>4445.9344036087</v>
       </c>
       <c r="F86">
-        <v>3711.959483659978</v>
+        <v>3711.959483659937</v>
       </c>
       <c r="G86">
-        <v>5.543632278778144</v>
+        <v>5.543632278778147</v>
       </c>
       <c r="H86">
-        <v>65.5234017706474</v>
+        <v>65.52340177064843</v>
       </c>
       <c r="I86">
-        <v>2.918044350890492E-08</v>
+        <v>2.918044350890576E-08</v>
       </c>
       <c r="J86">
-        <v>2.210931939997801E-08</v>
+        <v>2.210931939997823E-08</v>
       </c>
       <c r="K86">
-        <v>3.966805460587636E-05</v>
+        <v>3.9668054605876E-05</v>
       </c>
       <c r="L86">
-        <v>0.08680240382571075</v>
+        <v>0.08680240382571019</v>
       </c>
       <c r="M86">
-        <v>627.1859622776997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.08675959050194583</v>
+      </c>
+      <c r="N86">
+        <v>627.1859622776952</v>
+      </c>
+      <c r="O86">
+        <v>4.28133237643711E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>178.1477143236549</v>
+        <v>178.1477143236553</v>
       </c>
       <c r="B87">
-        <v>3222538.513297788</v>
+        <v>3222538.513297796</v>
       </c>
       <c r="C87">
-        <v>3598.961462621313</v>
+        <v>3598.961462621288</v>
       </c>
       <c r="D87">
-        <v>17290.10570459135</v>
+        <v>17290.10570459124</v>
       </c>
       <c r="E87">
-        <v>4279.092034451491</v>
+        <v>4279.092034451475</v>
       </c>
       <c r="F87">
-        <v>3570.064635914337</v>
+        <v>3570.064635914314</v>
       </c>
       <c r="G87">
-        <v>5.539874628030615</v>
+        <v>5.53987462803067</v>
       </c>
       <c r="H87">
-        <v>69.17832671734483</v>
+        <v>69.17832671734675</v>
       </c>
       <c r="I87">
-        <v>3.253701606152102E-08</v>
+        <v>3.253701606152268E-08</v>
       </c>
       <c r="J87">
-        <v>2.294518585253443E-08</v>
+        <v>2.294518585253477E-08</v>
       </c>
       <c r="K87">
-        <v>3.836171042942787E-05</v>
+        <v>3.836171042942733E-05</v>
       </c>
       <c r="L87">
-        <v>0.08468204150834883</v>
+        <v>0.08468204150834799</v>
       </c>
       <c r="M87">
-        <v>609.3822394480947</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.08463628488569253</v>
+      </c>
+      <c r="N87">
+        <v>609.3822394480862</v>
+      </c>
+      <c r="O87">
+        <v>4.575662265546044E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>179.4797095652128</v>
+        <v>179.4797095652133</v>
       </c>
       <c r="B88">
-        <v>3370448.056263679</v>
+        <v>3370448.05626375</v>
       </c>
       <c r="C88">
-        <v>3827.666982861988</v>
+        <v>3827.666982862114</v>
       </c>
       <c r="D88">
-        <v>17020.20277599143</v>
+        <v>17020.20277599135</v>
       </c>
       <c r="E88">
-        <v>4104.46342720765</v>
+        <v>4104.463427207575</v>
       </c>
       <c r="F88">
-        <v>3421.940815965909</v>
+        <v>3421.94081596585</v>
       </c>
       <c r="G88">
-        <v>5.541497763786664</v>
+        <v>5.54149776378668</v>
       </c>
       <c r="H88">
-        <v>73.35125562500662</v>
+        <v>73.35125562500774</v>
       </c>
       <c r="I88">
-        <v>3.651493310215184E-08</v>
+        <v>3.651493310215293E-08</v>
       </c>
       <c r="J88">
-        <v>2.382973733973902E-08</v>
+        <v>2.382973733973928E-08</v>
       </c>
       <c r="K88">
-        <v>3.706860684183858E-05</v>
+        <v>3.706860684183823E-05</v>
       </c>
       <c r="L88">
-        <v>0.0825814255123624</v>
+        <v>0.08258142551236181</v>
       </c>
       <c r="M88">
-        <v>591.4017093686336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.08253250911953899</v>
+      </c>
+      <c r="N88">
+        <v>591.4017093686291</v>
+      </c>
+      <c r="O88">
+        <v>4.89163928228146E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>180.8117048067707</v>
+        <v>180.8117048067712</v>
       </c>
       <c r="B89">
-        <v>3523419.982088371</v>
+        <v>3523419.982088452</v>
       </c>
       <c r="C89">
-        <v>4073.678281781887</v>
+        <v>4073.678281782053</v>
       </c>
       <c r="D89">
-        <v>16740.6324664742</v>
+        <v>16740.6324664741</v>
       </c>
       <c r="E89">
-        <v>3921.674129783449</v>
+        <v>3921.674129783341</v>
       </c>
       <c r="F89">
-        <v>3267.221792126344</v>
+        <v>3267.221792126255</v>
       </c>
       <c r="G89">
-        <v>5.549112911049675</v>
+        <v>5.549112911049677</v>
       </c>
       <c r="H89">
-        <v>78.17198065509319</v>
+        <v>78.1719806550946</v>
       </c>
       <c r="I89">
-        <v>4.128497789664818E-08</v>
+        <v>4.128497789664978E-08</v>
       </c>
       <c r="J89">
-        <v>2.476833534988982E-08</v>
+        <v>2.476833534989016E-08</v>
       </c>
       <c r="K89">
-        <v>3.578713657689662E-05</v>
+        <v>3.578713657689619E-05</v>
       </c>
       <c r="L89">
-        <v>0.08050322860181437</v>
+        <v>0.08050322860181368</v>
       </c>
       <c r="M89">
-        <v>573.2296543065385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.08045092163446202</v>
+      </c>
+      <c r="N89">
+        <v>573.2296543065326</v>
+      </c>
+      <c r="O89">
+        <v>5.230696735166424E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>182.1437000483287</v>
+        <v>182.1437000483292</v>
       </c>
       <c r="B90">
-        <v>3681551.169059939</v>
+        <v>3681551.169059927</v>
       </c>
       <c r="C90">
-        <v>4338.291674365688</v>
+        <v>4338.291674365578</v>
       </c>
       <c r="D90">
-        <v>16450.4191259302</v>
+        <v>16450.41912593002</v>
       </c>
       <c r="E90">
-        <v>3730.385254180372</v>
+        <v>3730.38525418039</v>
       </c>
       <c r="F90">
-        <v>3105.564339476747</v>
+        <v>3105.564339476746</v>
       </c>
       <c r="G90">
-        <v>5.563414924932367</v>
+        <v>5.563414924932403</v>
       </c>
       <c r="H90">
-        <v>83.81795491654937</v>
+        <v>83.81795491655427</v>
       </c>
       <c r="I90">
-        <v>4.708410669568122E-08</v>
+        <v>4.708410669568584E-08</v>
       </c>
       <c r="J90">
-        <v>2.576740921712418E-08</v>
+        <v>2.576740921712474E-08</v>
       </c>
       <c r="K90">
-        <v>3.451548762425475E-05</v>
+        <v>3.451548762425399E-05</v>
       </c>
       <c r="L90">
-        <v>0.07844923844901856</v>
+        <v>0.07844923844901737</v>
       </c>
       <c r="M90">
-        <v>554.8480217353233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.07839329485509967</v>
+      </c>
+      <c r="N90">
+        <v>554.8480217353102</v>
+      </c>
+      <c r="O90">
+        <v>5.594359391769496E-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>183.4756952898866</v>
+        <v>183.4756952898871</v>
       </c>
       <c r="B91">
-        <v>3844914.804069194</v>
+        <v>3844914.804069274</v>
       </c>
       <c r="C91">
-        <v>4622.75587321925</v>
+        <v>4622.755873219426</v>
       </c>
       <c r="D91">
-        <v>16148.34491523499</v>
+        <v>16148.34491523487</v>
       </c>
       <c r="E91">
-        <v>3530.28190092675</v>
+        <v>3530.281900926645</v>
       </c>
       <c r="F91">
-        <v>2936.645018956522</v>
+        <v>2936.645018956438</v>
       </c>
       <c r="G91">
-        <v>5.585208504676269</v>
+        <v>5.585208504676305</v>
       </c>
       <c r="H91">
-        <v>90.53806241182158</v>
+        <v>90.53806241182431</v>
       </c>
       <c r="I91">
-        <v>5.425015831642921E-08</v>
+        <v>5.425015831643221E-08</v>
       </c>
       <c r="J91">
-        <v>2.68348313179472E-08</v>
+        <v>2.683483131794763E-08</v>
       </c>
       <c r="K91">
-        <v>3.325150862140457E-05</v>
+        <v>3.325150862140409E-05</v>
       </c>
       <c r="L91">
-        <v>0.07642001484691796</v>
+        <v>0.07642001484691717</v>
       </c>
       <c r="M91">
-        <v>536.2341535200256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.07636017224574171</v>
+      </c>
+      <c r="N91">
+        <v>536.2341535200184</v>
+      </c>
+      <c r="O91">
+        <v>5.984260117545776E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>184.8076905314446</v>
+        <v>184.807690531445</v>
       </c>
       <c r="B92">
-        <v>4013552.088164393</v>
+        <v>4013552.088164507</v>
       </c>
       <c r="C92">
-        <v>4928.290415563068</v>
+        <v>4928.290415563363</v>
       </c>
       <c r="D92">
-        <v>15832.85033876504</v>
+        <v>15832.85033876501</v>
       </c>
       <c r="E92">
-        <v>3321.026605442893</v>
+        <v>3321.026605442768</v>
       </c>
       <c r="F92">
-        <v>2760.131502452063</v>
+        <v>2760.131502451973</v>
       </c>
       <c r="G92">
-        <v>5.615448276105854</v>
+        <v>5.615448276105814</v>
       </c>
       <c r="H92">
-        <v>98.6922390923998</v>
+        <v>98.69223909239901</v>
       </c>
       <c r="I92">
-        <v>6.328063365867177E-08</v>
+        <v>6.328063365867158E-08</v>
       </c>
       <c r="J92">
-        <v>2.79804782067489E-08</v>
+        <v>2.798047820674906E-08</v>
       </c>
       <c r="K92">
-        <v>3.19925077876129E-05</v>
+        <v>3.199250778761278E-05</v>
       </c>
       <c r="L92">
-        <v>0.07441445875229119</v>
+        <v>0.07441445875229098</v>
       </c>
       <c r="M92">
-        <v>517.3588656355358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.07435043709848835</v>
+      </c>
+      <c r="N92">
+        <v>517.3588656355359</v>
+      </c>
+      <c r="O92">
+        <v>6.402165380263978E-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>186.1396857730025</v>
+        <v>186.1396857730031</v>
       </c>
       <c r="B93">
-        <v>4187464.600900298</v>
+        <v>4187464.600900387</v>
       </c>
       <c r="C93">
-        <v>5256.194335245652</v>
+        <v>5256.194335245858</v>
       </c>
       <c r="D93">
-        <v>15501.88215882545</v>
+        <v>15501.88215882535</v>
       </c>
       <c r="E93">
-        <v>3102.155731790335</v>
+        <v>3102.15573179024</v>
       </c>
       <c r="F93">
-        <v>2575.60960452693</v>
+        <v>2575.609604526856</v>
       </c>
       <c r="G93">
-        <v>5.655301084989763</v>
+        <v>5.655301084989762</v>
       </c>
       <c r="H93">
-        <v>108.8208409332069</v>
+        <v>108.82084093321</v>
       </c>
       <c r="I93">
-        <v>7.4937310481564E-08</v>
+        <v>7.493731048156751E-08</v>
       </c>
       <c r="J93">
-        <v>2.9217095839066E-08</v>
+        <v>2.92170958390664E-08</v>
       </c>
       <c r="K93">
-        <v>3.073495023902012E-05</v>
+        <v>3.073495023901976E-05</v>
       </c>
       <c r="L93">
-        <v>0.07242923890615227</v>
+        <v>0.0724292389061517</v>
       </c>
       <c r="M93">
-        <v>498.1835432255268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.07236073875593735</v>
+      </c>
+      <c r="N93">
+        <v>498.183543225522</v>
+      </c>
+      <c r="O93">
+        <v>6.850015021436057E-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>187.4716810145605</v>
+        <v>187.471681014561</v>
       </c>
       <c r="B94">
-        <v>4366608.873794353</v>
+        <v>4366608.873794426</v>
       </c>
       <c r="C94">
-        <v>5608.106431373993</v>
+        <v>5608.106431374152</v>
       </c>
       <c r="D94">
-        <v>15152.65244791444</v>
+        <v>15152.6524479143</v>
       </c>
       <c r="E94">
-        <v>2872.892152464736</v>
+        <v>2872.892152464635</v>
       </c>
       <c r="F94">
-        <v>2382.442241589115</v>
+        <v>2382.442241589032</v>
       </c>
       <c r="G94">
-        <v>5.706245078320012</v>
+        <v>5.706245078320041</v>
       </c>
       <c r="H94">
-        <v>121.7735352336641</v>
+        <v>121.7735352336699</v>
       </c>
       <c r="I94">
-        <v>9.04440099528547E-08</v>
+        <v>9.044400995286194E-08</v>
       </c>
       <c r="J94">
-        <v>3.056168567265547E-08</v>
+        <v>3.056168567265606E-08</v>
       </c>
       <c r="K94">
-        <v>2.94739899888787E-05</v>
+        <v>2.947398998887822E-05</v>
       </c>
       <c r="L94">
-        <v>0.07045797264590306</v>
+        <v>0.0704579726459023</v>
       </c>
       <c r="M94">
-        <v>478.6556718323328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.07038467278842379</v>
+      </c>
+      <c r="N94">
+        <v>478.6556718323246</v>
+      </c>
+      <c r="O94">
+        <v>7.329985747850711E-05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>188.8036762561184</v>
+        <v>188.8036762561189</v>
       </c>
       <c r="B95">
-        <v>4550894.642073961</v>
+        <v>4550894.642073905</v>
       </c>
       <c r="C95">
-        <v>5986.498784300238</v>
+        <v>5986.498784299771</v>
       </c>
       <c r="D95">
-        <v>14781.23738261928</v>
+        <v>14781.23738261892</v>
       </c>
       <c r="E95">
-        <v>2631.837420665552</v>
+        <v>2631.837420665629</v>
       </c>
       <c r="F95">
-        <v>2179.527590404876</v>
+        <v>2179.52759040491</v>
       </c>
       <c r="G95">
-        <v>5.770233256866606</v>
+        <v>5.77023325686673</v>
       </c>
       <c r="H95">
-        <v>138.9671907189505</v>
+        <v>138.967190718976</v>
       </c>
       <c r="I95">
-        <v>1.118896072149953E-07</v>
+        <v>1.118896072150251E-07</v>
       </c>
       <c r="J95">
-        <v>3.20378396436761E-08</v>
+        <v>3.203783964367745E-08</v>
       </c>
       <c r="K95">
-        <v>2.820270934289472E-05</v>
+        <v>2.820270934289349E-05</v>
       </c>
       <c r="L95">
-        <v>0.06848995285422059</v>
+        <v>0.06848995285421883</v>
       </c>
       <c r="M95">
-        <v>458.7016598396434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.06841150689058074</v>
+      </c>
+      <c r="N95">
+        <v>458.7016598396207</v>
+      </c>
+      <c r="O95">
+        <v>7.844596363808781E-05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>190.1356714976764</v>
+        <v>190.1356714976769</v>
       </c>
       <c r="B96">
-        <v>4740187.590044933</v>
+        <v>4740187.590044929</v>
       </c>
       <c r="C96">
-        <v>6395.543202043014</v>
+        <v>6395.543202042713</v>
       </c>
       <c r="D96">
-        <v>14381.86148476555</v>
+        <v>14381.86148476519</v>
       </c>
       <c r="E96">
-        <v>2376.470025600217</v>
+        <v>2376.470025600237</v>
       </c>
       <c r="F96">
-        <v>1964.894440059835</v>
+        <v>1964.894440059825</v>
       </c>
       <c r="G96">
-        <v>5.84997961100825</v>
+        <v>5.849979611008393</v>
       </c>
       <c r="H96">
-        <v>162.953428246614</v>
+        <v>162.9534282466486</v>
       </c>
       <c r="I96">
-        <v>1.431325129878699E-07</v>
+        <v>1.431325129879123E-07</v>
       </c>
       <c r="J96">
-        <v>3.367994865664849E-08</v>
+        <v>3.367994865664991E-08</v>
       </c>
       <c r="K96">
-        <v>2.691078589356026E-05</v>
+        <v>2.691078589355909E-05</v>
       </c>
       <c r="L96">
-        <v>0.06650797261252674</v>
+        <v>0.06650797261252508</v>
       </c>
       <c r="M96">
-        <v>438.2144053988135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.06642400368446147</v>
+      </c>
+      <c r="N96">
+        <v>438.2144053987917</v>
+      </c>
+      <c r="O96">
+        <v>8.396892806361208E-05</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>191.4676667392343</v>
+        <v>191.4676667392348</v>
       </c>
       <c r="B97">
-        <v>4934316.349416037</v>
+        <v>4934316.349416051</v>
       </c>
       <c r="C97">
-        <v>6842.687170205328</v>
+        <v>6842.687170205139</v>
       </c>
       <c r="D97">
-        <v>13945.49408309426</v>
+        <v>13945.49408309389</v>
       </c>
       <c r="E97">
-        <v>2102.255255517732</v>
+        <v>2102.255255517707</v>
       </c>
       <c r="F97">
-        <v>1734.975993692833</v>
+        <v>1734.975993692796</v>
       </c>
       <c r="G97">
-        <v>5.949505035902833</v>
+        <v>5.949505035903002</v>
       </c>
       <c r="H97">
-        <v>198.8379758409211</v>
+        <v>198.837975840969</v>
       </c>
       <c r="I97">
-        <v>1.92111258432212E-07</v>
+        <v>1.921112584322749E-07</v>
       </c>
       <c r="J97">
-        <v>3.554152246704595E-08</v>
+        <v>3.554152246704747E-08</v>
       </c>
       <c r="K97">
-        <v>2.558190282465055E-05</v>
+        <v>2.558190282464941E-05</v>
       </c>
       <c r="L97">
-        <v>0.06448418361726233</v>
+        <v>0.06448418361726076</v>
       </c>
       <c r="M97">
-        <v>417.0292885897168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.06439427558091848</v>
+      </c>
+      <c r="N97">
+        <v>417.0292885896959</v>
+      </c>
+      <c r="O97">
+        <v>8.990803634227635E-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>192.7996619807923</v>
+        <v>192.7996619807928</v>
       </c>
       <c r="B98">
-        <v>5133082.497751325</v>
+        <v>5133082.497751344</v>
       </c>
       <c r="C98">
-        <v>7341.947523704269</v>
+        <v>7341.947523703991</v>
       </c>
       <c r="D98">
-        <v>13456.7072460822</v>
+        <v>13456.70724608186</v>
       </c>
       <c r="E98">
-        <v>1800.775669959991</v>
+        <v>1800.775669960001</v>
       </c>
       <c r="F98">
-        <v>1483.082732665267</v>
+        <v>1483.082732665264</v>
       </c>
       <c r="G98">
-        <v>6.075320083781446</v>
+        <v>6.075320083781584</v>
       </c>
       <c r="H98">
-        <v>258.540389927325</v>
+        <v>258.5403899273852</v>
       </c>
       <c r="I98">
-        <v>2.77944658840218E-07</v>
+        <v>2.779446588403054E-07</v>
       </c>
       <c r="J98">
-        <v>3.77139372422995E-08</v>
+        <v>3.771393724230103E-08</v>
       </c>
       <c r="K98">
-        <v>2.418796602597482E-05</v>
+        <v>2.418796602597385E-05</v>
       </c>
       <c r="L98">
-        <v>0.06237106918666318</v>
+        <v>0.06237106918666178</v>
       </c>
       <c r="M98">
-        <v>394.8705403226123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.06227475000666966</v>
+      </c>
+      <c r="N98">
+        <v>394.8705403225951</v>
+      </c>
+      <c r="O98">
+        <v>9.631917999211519E-05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>194.1316572223502</v>
+        <v>194.1316572223508</v>
       </c>
       <c r="B99">
-        <v>5336271.775958933</v>
+        <v>5336271.775959094</v>
       </c>
       <c r="C99">
-        <v>7922.609660653805</v>
+        <v>7922.60966065487</v>
       </c>
       <c r="D99">
-        <v>12885.077643762</v>
+        <v>12885.07764376224</v>
       </c>
       <c r="E99">
-        <v>1454.733926384461</v>
+        <v>1454.733926384162</v>
       </c>
       <c r="F99">
-        <v>1195.327722237075</v>
+        <v>1195.32772223685</v>
       </c>
       <c r="G99">
-        <v>6.2395432151707</v>
+        <v>6.239543215170513</v>
       </c>
       <c r="H99">
-        <v>377.8401263148898</v>
+        <v>377.8401263147429</v>
       </c>
       <c r="I99">
-        <v>4.60134420572919E-07</v>
+        <v>4.601344205727119E-07</v>
       </c>
       <c r="J99">
-        <v>4.037804832591282E-08</v>
+        <v>4.037804832591189E-08</v>
       </c>
       <c r="K99">
-        <v>2.267325811483479E-05</v>
+        <v>2.267325811483544E-05</v>
       </c>
       <c r="L99">
-        <v>0.06007744939309673</v>
+        <v>0.06007744939309742</v>
       </c>
       <c r="M99">
-        <v>371.2036080784815</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.05997415372338288</v>
+      </c>
+      <c r="N99">
+        <v>371.2036080784964</v>
+      </c>
+      <c r="O99">
+        <v>0.0001032956697145346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>195.4636524639081</v>
+        <v>195.4636524639087</v>
       </c>
       <c r="B100">
-        <v>5543664.836838203</v>
+        <v>5543664.83683843</v>
       </c>
       <c r="C100">
-        <v>8663.071370542973</v>
+        <v>8663.071370546195</v>
       </c>
       <c r="D100">
-        <v>12151.38523596353</v>
+        <v>12151.38523596535</v>
       </c>
       <c r="E100">
-        <v>1018.367343326546</v>
+        <v>1018.36734332602</v>
       </c>
       <c r="F100">
-        <v>834.6649401188489</v>
+        <v>834.6649401184884</v>
       </c>
       <c r="G100">
-        <v>6.47163592161133</v>
+        <v>6.471635921610262</v>
       </c>
       <c r="H100">
-        <v>735.7228012916726</v>
+        <v>735.722801289184</v>
       </c>
       <c r="I100">
-        <v>1.050433906229581E-06</v>
+        <v>1.050433906225591E-06</v>
       </c>
       <c r="J100">
-        <v>4.400847613219674E-08</v>
+        <v>4.400847613218807E-08</v>
       </c>
       <c r="K100">
-        <v>2.08919427714699E-05</v>
+        <v>2.089194277147425E-05</v>
       </c>
       <c r="L100">
-        <v>0.05737690950543522</v>
+        <v>0.05737690950544071</v>
       </c>
       <c r="M100">
-        <v>344.6489289564651</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.05726586123396155</v>
+      </c>
+      <c r="N100">
+        <v>344.6489289565422</v>
+      </c>
+      <c r="O100">
+        <v>0.0001110482714791507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>196.7956477054661</v>
+        <v>196.7956477054666</v>
       </c>
       <c r="B101">
-        <v>5755045.148688579</v>
+        <v>5755045.150977395</v>
       </c>
       <c r="C101">
-        <v>10445.80745286581</v>
+        <v>10445.35712590762</v>
       </c>
       <c r="D101">
-        <v>10449.53396486407</v>
+        <v>10449.96824590829</v>
       </c>
       <c r="E101">
-        <v>1.082202202896591</v>
+        <v>1.33909830026077</v>
       </c>
       <c r="F101">
-        <v>0.8857249304131312</v>
+        <v>1.095980422714425</v>
       </c>
       <c r="G101">
-        <v>7.035155584204151</v>
+        <v>7.035018992051393</v>
       </c>
       <c r="H101">
-        <v>9945526.906517664</v>
+        <v>8008873.668782341</v>
       </c>
       <c r="I101">
-        <v>0.02034260013977204</v>
+        <v>0.01637990087798165</v>
       </c>
       <c r="J101">
-        <v>5.352763452892778E-08</v>
+        <v>5.352497270563405E-08</v>
       </c>
       <c r="K101">
-        <v>1.73452960226239E-05</v>
+        <v>1.734611167949315E-05</v>
       </c>
       <c r="L101">
-        <v>0.05210686024286568</v>
+        <v>0.05210801967789185</v>
       </c>
       <c r="M101">
-        <v>300.9686425533249</v>
+        <v>0.05198655991151893</v>
+      </c>
+      <c r="N101">
+        <v>300.9766076964477</v>
+      </c>
+      <c r="O101">
+        <v>0.0001214597663729237</v>
       </c>
     </row>
   </sheetData>
